--- a/exercicio4sine/results.xlsx
+++ b/exercicio4sine/results.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,13 +481,13 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1172577157994923</v>
+        <v>0.0161369670098014</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/exercicio4sine/results.xlsx
+++ b/exercicio4sine/results.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,27 +467,7925 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0161369670098014</v>
+        <v>0.1263867895413253</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2114146505957379</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1949507904953225</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.169594433586506</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>200</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2807113831854943</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.07814673682008903</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D8" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1271788588370831</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D9" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2079745673941274</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D10" t="n">
+        <v>200</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2389278128391683</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D11" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>200</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2367878772112469</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.220846516555864</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.007063091262747256</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2072961487728895</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1721719924900977</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>200</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1574684299135149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D17" t="n">
+        <v>200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.009273585421350041</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D18" t="n">
+        <v>200</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2145877850831023</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D19" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" t="n">
+        <v>50</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2151785086698434</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D20" t="n">
+        <v>200</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1874078506327547</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D21" t="n">
+        <v>200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>200</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3346071947959838</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0103288279520915</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D23" t="n">
+        <v>100</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.005649635393018757</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>100</v>
+      </c>
+      <c r="E24" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.008564408081755463</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D25" t="n">
+        <v>100</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2046393112163161</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" t="n">
+        <v>200</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5970925972226361</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D27" t="n">
+        <v>200</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.003980290603122242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D28" t="n">
+        <v>200</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.003937329099030183</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D29" t="n">
+        <v>200</v>
+      </c>
+      <c r="E29" t="n">
+        <v>50</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2829495645174046</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D30" t="n">
+        <v>200</v>
+      </c>
+      <c r="E30" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.2725852344850935</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>200</v>
+      </c>
+      <c r="E31" t="n">
+        <v>200</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.49810347406249</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.003695310352793416</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.007754769913458115</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>100</v>
+      </c>
+      <c r="E34" t="n">
+        <v>50</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2808601817770865</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>100</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6989730516016387</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
+        <v>200</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.4550961193961726</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>200</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.004925482270890262</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>200</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.003601404968190989</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>200</v>
+      </c>
+      <c r="E39" t="n">
+        <v>50</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.2995590883082203</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>200</v>
+      </c>
+      <c r="E40" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7808081531269973</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>200</v>
+      </c>
+      <c r="E41" t="n">
+        <v>200</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.7149750761086312</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1588637386258696</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D43" t="n">
+        <v>100</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1805600297624299</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D44" t="n">
+        <v>100</v>
+      </c>
+      <c r="E44" t="n">
+        <v>50</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1404839264884844</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D45" t="n">
+        <v>100</v>
+      </c>
+      <c r="E45" t="n">
+        <v>100</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1356896495884144</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D46" t="n">
+        <v>100</v>
+      </c>
+      <c r="E46" t="n">
+        <v>200</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.04895532521841033</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D47" t="n">
+        <v>200</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1366781959804165</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D48" t="n">
+        <v>200</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.2699258992317229</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D49" t="n">
+        <v>200</v>
+      </c>
+      <c r="E49" t="n">
+        <v>50</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.01473067110434745</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D50" t="n">
+        <v>200</v>
+      </c>
+      <c r="E50" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.007914765870561823</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D51" t="n">
+        <v>200</v>
+      </c>
+      <c r="E51" t="n">
+        <v>200</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.01329865684220114</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D52" t="n">
+        <v>100</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1655415205757496</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D53" t="n">
+        <v>100</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1039051154244361</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D54" t="n">
+        <v>100</v>
+      </c>
+      <c r="E54" t="n">
+        <v>50</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.009274480821241254</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D55" t="n">
+        <v>100</v>
+      </c>
+      <c r="E55" t="n">
+        <v>100</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.008023905089909158</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D56" t="n">
+        <v>100</v>
+      </c>
+      <c r="E56" t="n">
+        <v>200</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2278861594426649</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D57" t="n">
+        <v>200</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.7497048841625086</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D58" t="n">
+        <v>200</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1313464489932144</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D59" t="n">
+        <v>200</v>
+      </c>
+      <c r="E59" t="n">
+        <v>50</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.003266154408500213</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D60" t="n">
+        <v>200</v>
+      </c>
+      <c r="E60" t="n">
+        <v>100</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01158774818776977</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D61" t="n">
+        <v>200</v>
+      </c>
+      <c r="E61" t="n">
+        <v>200</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.005187893986306097</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D62" t="n">
+        <v>100</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.6594725859869545</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D63" t="n">
+        <v>100</v>
+      </c>
+      <c r="E63" t="n">
+        <v>10</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.2145144570738448</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D64" t="n">
+        <v>100</v>
+      </c>
+      <c r="E64" t="n">
+        <v>50</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1695806486636273</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D65" t="n">
+        <v>100</v>
+      </c>
+      <c r="E65" t="n">
+        <v>100</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1953774083917911</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D66" t="n">
+        <v>100</v>
+      </c>
+      <c r="E66" t="n">
+        <v>200</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01144112624597625</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D67" t="n">
+        <v>200</v>
+      </c>
+      <c r="E67" t="n">
+        <v>5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.1973609883069484</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D68" t="n">
+        <v>200</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.2516226629759586</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D69" t="n">
+        <v>200</v>
+      </c>
+      <c r="E69" t="n">
+        <v>50</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.006426945307520446</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D70" t="n">
+        <v>200</v>
+      </c>
+      <c r="E70" t="n">
+        <v>100</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.5804212303685323</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D71" t="n">
+        <v>200</v>
+      </c>
+      <c r="E71" t="n">
+        <v>200</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.148998204659147</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>100</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.1635977855931289</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>100</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.1473651662627793</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>100</v>
+      </c>
+      <c r="E74" t="n">
+        <v>50</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.1668956243253964</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>100</v>
+      </c>
+      <c r="E75" t="n">
+        <v>100</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.4837326941603043</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>100</v>
+      </c>
+      <c r="E76" t="n">
+        <v>200</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.386206313294668</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>200</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.4431882948605876</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>200</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.7794239906063537</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>200</v>
+      </c>
+      <c r="E79" t="n">
+        <v>50</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.1555744033407706</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>200</v>
+      </c>
+      <c r="E80" t="n">
+        <v>100</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.02263465554880179</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>200</v>
+      </c>
+      <c r="E81" t="n">
+        <v>200</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.5734855124943822</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D82" t="n">
+        <v>100</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.006988065795473177</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D83" t="n">
+        <v>100</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.006224706914324509</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D84" t="n">
+        <v>100</v>
+      </c>
+      <c r="E84" t="n">
+        <v>50</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.2472489718142991</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D85" t="n">
+        <v>100</v>
+      </c>
+      <c r="E85" t="n">
+        <v>100</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1709237375241282</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D86" t="n">
+        <v>100</v>
+      </c>
+      <c r="E86" t="n">
+        <v>200</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.2394887492279243</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D87" t="n">
+        <v>200</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.007303482013404776</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D88" t="n">
+        <v>200</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.009335540317683412</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D89" t="n">
+        <v>200</v>
+      </c>
+      <c r="E89" t="n">
+        <v>50</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.008106725250192254</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D90" t="n">
+        <v>200</v>
+      </c>
+      <c r="E90" t="n">
+        <v>100</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.2227112302558809</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D91" t="n">
+        <v>200</v>
+      </c>
+      <c r="E91" t="n">
+        <v>200</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.1788385116025133</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D92" t="n">
+        <v>100</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.00606581920532872</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D93" t="n">
+        <v>100</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.007262424048723872</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D94" t="n">
+        <v>100</v>
+      </c>
+      <c r="E94" t="n">
+        <v>50</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.2994494469067635</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D95" t="n">
+        <v>100</v>
+      </c>
+      <c r="E95" t="n">
+        <v>100</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.003967032364359873</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D96" t="n">
+        <v>100</v>
+      </c>
+      <c r="E96" t="n">
+        <v>200</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.2514636161383028</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D97" t="n">
+        <v>200</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.004568731259499557</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D98" t="n">
+        <v>200</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.004510008350850757</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D99" t="n">
+        <v>200</v>
+      </c>
+      <c r="E99" t="n">
+        <v>50</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.1621397562198314</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D100" t="n">
+        <v>200</v>
+      </c>
+      <c r="E100" t="n">
+        <v>100</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1902112211963799</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D101" t="n">
+        <v>200</v>
+      </c>
+      <c r="E101" t="n">
+        <v>200</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1676023134401418</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D102" t="n">
+        <v>100</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.003044851896046756</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D103" t="n">
+        <v>100</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.01242422456303606</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D104" t="n">
+        <v>100</v>
+      </c>
+      <c r="E104" t="n">
+        <v>50</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.005356815537770389</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D105" t="n">
+        <v>100</v>
+      </c>
+      <c r="E105" t="n">
+        <v>100</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.005795973085182068</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D106" t="n">
+        <v>100</v>
+      </c>
+      <c r="E106" t="n">
+        <v>200</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.008544028048258755</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D107" t="n">
+        <v>200</v>
+      </c>
+      <c r="E107" t="n">
+        <v>5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.005224830943996625</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D108" t="n">
+        <v>200</v>
+      </c>
+      <c r="E108" t="n">
+        <v>10</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.00372772181024295</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D109" t="n">
+        <v>200</v>
+      </c>
+      <c r="E109" t="n">
+        <v>50</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.01722587774318311</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D110" t="n">
+        <v>200</v>
+      </c>
+      <c r="E110" t="n">
+        <v>100</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.01133622097866763</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D111" t="n">
+        <v>200</v>
+      </c>
+      <c r="E111" t="n">
+        <v>200</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.009548641356250233</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>100</v>
+      </c>
+      <c r="E112" t="n">
+        <v>5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.009239365237826343</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>100</v>
+      </c>
+      <c r="E113" t="n">
+        <v>10</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.006005812919128991</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>100</v>
+      </c>
+      <c r="E114" t="n">
+        <v>50</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.01012413069670604</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>100</v>
+      </c>
+      <c r="E115" t="n">
+        <v>100</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.01344727750533376</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>100</v>
+      </c>
+      <c r="E116" t="n">
+        <v>200</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.02393001369080002</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>200</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.003794981240163357</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>200</v>
+      </c>
+      <c r="E118" t="n">
+        <v>10</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0129224285384313</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>200</v>
+      </c>
+      <c r="E119" t="n">
+        <v>50</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0121481299061089</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>200</v>
+      </c>
+      <c r="E120" t="n">
+        <v>100</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.02106945689947266</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>200</v>
+      </c>
+      <c r="E121" t="n">
+        <v>200</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0322692992031043</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D122" t="n">
+        <v>100</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.02205550842456807</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D123" t="n">
+        <v>100</v>
+      </c>
+      <c r="E123" t="n">
+        <v>10</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.1274292795587892</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D124" t="n">
+        <v>100</v>
+      </c>
+      <c r="E124" t="n">
+        <v>50</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.1936132350966171</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D125" t="n">
+        <v>100</v>
+      </c>
+      <c r="E125" t="n">
+        <v>100</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.2135990944647856</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D126" t="n">
+        <v>100</v>
+      </c>
+      <c r="E126" t="n">
+        <v>200</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.1916106555339376</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D127" t="n">
+        <v>200</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.2944813635354968</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D128" t="n">
+        <v>200</v>
+      </c>
+      <c r="E128" t="n">
+        <v>10</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.1770781155367178</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D129" t="n">
+        <v>200</v>
+      </c>
+      <c r="E129" t="n">
+        <v>50</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.2074008517994904</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D130" t="n">
+        <v>200</v>
+      </c>
+      <c r="E130" t="n">
+        <v>100</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.294695617909033</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D131" t="n">
+        <v>200</v>
+      </c>
+      <c r="E131" t="n">
+        <v>200</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.2560806148100164</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D132" t="n">
+        <v>100</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.01462999407666212</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D133" t="n">
+        <v>100</v>
+      </c>
+      <c r="E133" t="n">
+        <v>10</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.1896657116077513</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D134" t="n">
+        <v>100</v>
+      </c>
+      <c r="E134" t="n">
+        <v>50</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.209398602800979</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D135" t="n">
+        <v>100</v>
+      </c>
+      <c r="E135" t="n">
+        <v>100</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.2209289916566741</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D136" t="n">
+        <v>100</v>
+      </c>
+      <c r="E136" t="n">
+        <v>200</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.2971675632379508</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D137" t="n">
+        <v>200</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.2461162909373566</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D138" t="n">
+        <v>200</v>
+      </c>
+      <c r="E138" t="n">
+        <v>10</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.02043150894205133</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D139" t="n">
+        <v>200</v>
+      </c>
+      <c r="E139" t="n">
+        <v>50</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.35574525766145</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D140" t="n">
+        <v>200</v>
+      </c>
+      <c r="E140" t="n">
+        <v>100</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.1935646267955138</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D141" t="n">
+        <v>200</v>
+      </c>
+      <c r="E141" t="n">
+        <v>200</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.2756467040644631</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D142" t="n">
+        <v>100</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.01155912535345424</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D143" t="n">
+        <v>100</v>
+      </c>
+      <c r="E143" t="n">
+        <v>10</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.01967074417925789</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D144" t="n">
+        <v>100</v>
+      </c>
+      <c r="E144" t="n">
+        <v>50</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.2356653134717112</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D145" t="n">
+        <v>100</v>
+      </c>
+      <c r="E145" t="n">
+        <v>100</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.332382094656046</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D146" t="n">
+        <v>100</v>
+      </c>
+      <c r="E146" t="n">
+        <v>200</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.5364703419075318</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D147" t="n">
+        <v>200</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.01355150956548454</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D148" t="n">
+        <v>200</v>
+      </c>
+      <c r="E148" t="n">
+        <v>10</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.00967024120344287</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D149" t="n">
+        <v>200</v>
+      </c>
+      <c r="E149" t="n">
+        <v>50</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.2364435778389412</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D150" t="n">
+        <v>200</v>
+      </c>
+      <c r="E150" t="n">
+        <v>100</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.2157357083901718</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D151" t="n">
+        <v>200</v>
+      </c>
+      <c r="E151" t="n">
+        <v>200</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.6066001686086557</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>100</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.01151159652200778</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>100</v>
+      </c>
+      <c r="E153" t="n">
+        <v>10</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.02816365541531884</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>100</v>
+      </c>
+      <c r="E154" t="n">
+        <v>50</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.4815467445873413</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>100</v>
+      </c>
+      <c r="E155" t="n">
+        <v>100</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.8537855624904069</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>100</v>
+      </c>
+      <c r="E156" t="n">
+        <v>200</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.6085239750741298</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>200</v>
+      </c>
+      <c r="E157" t="n">
+        <v>5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.01218228781628223</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>200</v>
+      </c>
+      <c r="E158" t="n">
+        <v>10</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.04169157092790321</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>200</v>
+      </c>
+      <c r="E159" t="n">
+        <v>50</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.266616493206262</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>200</v>
+      </c>
+      <c r="E160" t="n">
+        <v>100</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.497494687829377</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>200</v>
+      </c>
+      <c r="E161" t="n">
+        <v>200</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.6078965434926347</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D162" t="n">
+        <v>100</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.2110714930594963</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D163" t="n">
+        <v>100</v>
+      </c>
+      <c r="E163" t="n">
+        <v>10</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.1617890157924921</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D164" t="n">
+        <v>100</v>
+      </c>
+      <c r="E164" t="n">
+        <v>50</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.2434923919784096</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D165" t="n">
+        <v>100</v>
+      </c>
+      <c r="E165" t="n">
+        <v>100</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.02448165106065757</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D166" t="n">
+        <v>100</v>
+      </c>
+      <c r="E166" t="n">
+        <v>200</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.02553672168443278</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D167" t="n">
+        <v>200</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.2149521491867943</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D168" t="n">
+        <v>200</v>
+      </c>
+      <c r="E168" t="n">
+        <v>10</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.1872855218318688</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D169" t="n">
+        <v>200</v>
+      </c>
+      <c r="E169" t="n">
+        <v>50</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.02892011972626129</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D170" t="n">
+        <v>200</v>
+      </c>
+      <c r="E170" t="n">
+        <v>100</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.02355199235465343</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D171" t="n">
+        <v>200</v>
+      </c>
+      <c r="E171" t="n">
+        <v>200</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.1612658422179844</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D172" t="n">
+        <v>100</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.2243483748452234</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D173" t="n">
+        <v>100</v>
+      </c>
+      <c r="E173" t="n">
+        <v>10</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.1616113630417036</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D174" t="n">
+        <v>100</v>
+      </c>
+      <c r="E174" t="n">
+        <v>50</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.2587643680344059</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D175" t="n">
+        <v>100</v>
+      </c>
+      <c r="E175" t="n">
+        <v>100</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.1262159073153302</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D176" t="n">
+        <v>100</v>
+      </c>
+      <c r="E176" t="n">
+        <v>200</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.01794768065583786</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D177" t="n">
+        <v>200</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.1552517545202532</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D178" t="n">
+        <v>200</v>
+      </c>
+      <c r="E178" t="n">
+        <v>10</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.2013891161098149</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D179" t="n">
+        <v>200</v>
+      </c>
+      <c r="E179" t="n">
+        <v>50</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.1532772387657365</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D180" t="n">
+        <v>200</v>
+      </c>
+      <c r="E180" t="n">
+        <v>100</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.03538545166749978</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D181" t="n">
+        <v>200</v>
+      </c>
+      <c r="E181" t="n">
+        <v>200</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.1853846697912576</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D182" t="n">
+        <v>100</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.1435321049660987</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D183" t="n">
+        <v>100</v>
+      </c>
+      <c r="E183" t="n">
+        <v>10</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.1630115910914967</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D184" t="n">
+        <v>100</v>
+      </c>
+      <c r="E184" t="n">
+        <v>50</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.1663652236753141</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D185" t="n">
+        <v>100</v>
+      </c>
+      <c r="E185" t="n">
+        <v>100</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.1349387612966964</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D186" t="n">
+        <v>100</v>
+      </c>
+      <c r="E186" t="n">
+        <v>200</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.1487362795043802</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D187" t="n">
+        <v>200</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.2202135933359312</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D188" t="n">
+        <v>200</v>
+      </c>
+      <c r="E188" t="n">
+        <v>10</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.137577592896466</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D189" t="n">
+        <v>200</v>
+      </c>
+      <c r="E189" t="n">
+        <v>50</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.02885930731645795</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D190" t="n">
+        <v>200</v>
+      </c>
+      <c r="E190" t="n">
+        <v>100</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.06702593141710719</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D191" t="n">
+        <v>200</v>
+      </c>
+      <c r="E191" t="n">
+        <v>200</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.1679809550315605</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>100</v>
+      </c>
+      <c r="E192" t="n">
+        <v>5</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.1579965154993352</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>100</v>
+      </c>
+      <c r="E193" t="n">
+        <v>10</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.179049762049087</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>100</v>
+      </c>
+      <c r="E194" t="n">
+        <v>50</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.1811287119786049</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>100</v>
+      </c>
+      <c r="E195" t="n">
+        <v>100</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.2434783558648769</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>100</v>
+      </c>
+      <c r="E196" t="n">
+        <v>200</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.7072013417849202</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>200</v>
+      </c>
+      <c r="E197" t="n">
+        <v>5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.1205830498197107</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>200</v>
+      </c>
+      <c r="E198" t="n">
+        <v>10</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.045022622752986</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>200</v>
+      </c>
+      <c r="E199" t="n">
+        <v>50</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.1674201002191347</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>200</v>
+      </c>
+      <c r="E200" t="n">
+        <v>100</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.1564412986520773</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>200</v>
+      </c>
+      <c r="E201" t="n">
+        <v>200</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.1702225673436207</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D202" t="n">
+        <v>100</v>
+      </c>
+      <c r="E202" t="n">
+        <v>5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.01829236366542303</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D203" t="n">
+        <v>100</v>
+      </c>
+      <c r="E203" t="n">
+        <v>10</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.3074725030306929</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D204" t="n">
+        <v>100</v>
+      </c>
+      <c r="E204" t="n">
+        <v>50</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.1986050475187592</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D205" t="n">
+        <v>100</v>
+      </c>
+      <c r="E205" t="n">
+        <v>100</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.2214441375446349</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D206" t="n">
+        <v>100</v>
+      </c>
+      <c r="E206" t="n">
+        <v>200</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.1628464184843115</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D207" t="n">
+        <v>200</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.2346333478679587</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D208" t="n">
+        <v>200</v>
+      </c>
+      <c r="E208" t="n">
+        <v>10</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.2973690282352699</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D209" t="n">
+        <v>200</v>
+      </c>
+      <c r="E209" t="n">
+        <v>50</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.2486208878600587</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D210" t="n">
+        <v>200</v>
+      </c>
+      <c r="E210" t="n">
+        <v>100</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.185786358039336</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D211" t="n">
+        <v>200</v>
+      </c>
+      <c r="E211" t="n">
+        <v>200</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.2304382155688386</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D212" t="n">
+        <v>100</v>
+      </c>
+      <c r="E212" t="n">
+        <v>5</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.02048291864121804</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D213" t="n">
+        <v>100</v>
+      </c>
+      <c r="E213" t="n">
+        <v>10</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.3290820168529274</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D214" t="n">
+        <v>100</v>
+      </c>
+      <c r="E214" t="n">
+        <v>50</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.2026733733737746</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D215" t="n">
+        <v>100</v>
+      </c>
+      <c r="E215" t="n">
+        <v>100</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.1964764076378246</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D216" t="n">
+        <v>100</v>
+      </c>
+      <c r="E216" t="n">
+        <v>200</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.2371168177845114</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D217" t="n">
+        <v>200</v>
+      </c>
+      <c r="E217" t="n">
+        <v>5</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.01532386538606284</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D218" t="n">
+        <v>200</v>
+      </c>
+      <c r="E218" t="n">
+        <v>10</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.01548282910106856</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D219" t="n">
+        <v>200</v>
+      </c>
+      <c r="E219" t="n">
+        <v>50</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.01676025549228332</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D220" t="n">
+        <v>200</v>
+      </c>
+      <c r="E220" t="n">
+        <v>100</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.007219504401122875</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D221" t="n">
+        <v>200</v>
+      </c>
+      <c r="E221" t="n">
+        <v>200</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.01109847479344953</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D222" t="n">
+        <v>100</v>
+      </c>
+      <c r="E222" t="n">
+        <v>5</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.01855612967498755</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D223" t="n">
+        <v>100</v>
+      </c>
+      <c r="E223" t="n">
+        <v>10</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.01577336617297546</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D224" t="n">
+        <v>100</v>
+      </c>
+      <c r="E224" t="n">
+        <v>50</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.01619935908328427</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D225" t="n">
+        <v>100</v>
+      </c>
+      <c r="E225" t="n">
+        <v>100</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.02263826977909803</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D226" t="n">
+        <v>100</v>
+      </c>
+      <c r="E226" t="n">
+        <v>200</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.04549655045429037</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D227" t="n">
+        <v>200</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.01312682462578365</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D228" t="n">
+        <v>200</v>
+      </c>
+      <c r="E228" t="n">
+        <v>10</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.008812444854240795</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D229" t="n">
+        <v>200</v>
+      </c>
+      <c r="E229" t="n">
+        <v>50</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.02608107715979378</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D230" t="n">
+        <v>200</v>
+      </c>
+      <c r="E230" t="n">
+        <v>100</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.01758703346985199</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D231" t="n">
+        <v>200</v>
+      </c>
+      <c r="E231" t="n">
+        <v>200</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.02799937174898788</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>100</v>
+      </c>
+      <c r="E232" t="n">
+        <v>5</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.05842235054702667</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>100</v>
+      </c>
+      <c r="E233" t="n">
+        <v>10</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.01819488686556203</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D234" t="n">
+        <v>100</v>
+      </c>
+      <c r="E234" t="n">
+        <v>50</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.02591059452633482</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>100</v>
+      </c>
+      <c r="E235" t="n">
+        <v>100</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.04874924430724037</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D236" t="n">
+        <v>100</v>
+      </c>
+      <c r="E236" t="n">
+        <v>200</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.05142483538004176</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>200</v>
+      </c>
+      <c r="E237" t="n">
+        <v>5</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.02032605344038054</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>200</v>
+      </c>
+      <c r="E238" t="n">
+        <v>10</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.0151593253700597</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>200</v>
+      </c>
+      <c r="E239" t="n">
+        <v>50</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.08816301589057959</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D240" t="n">
+        <v>200</v>
+      </c>
+      <c r="E240" t="n">
+        <v>100</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.06783675771217786</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>200</v>
+      </c>
+      <c r="E241" t="n">
+        <v>200</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.02920413418125553</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D242" t="n">
+        <v>100</v>
+      </c>
+      <c r="E242" t="n">
+        <v>5</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.2620369365367123</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D243" t="n">
+        <v>100</v>
+      </c>
+      <c r="E243" t="n">
+        <v>10</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.257212927736251</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D244" t="n">
+        <v>100</v>
+      </c>
+      <c r="E244" t="n">
+        <v>50</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.1811893583245522</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D245" t="n">
+        <v>100</v>
+      </c>
+      <c r="E245" t="n">
+        <v>100</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.2494528250159964</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D246" t="n">
+        <v>100</v>
+      </c>
+      <c r="E246" t="n">
+        <v>200</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.361926109578828</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D247" t="n">
+        <v>200</v>
+      </c>
+      <c r="E247" t="n">
+        <v>5</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.214880387018689</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D248" t="n">
+        <v>200</v>
+      </c>
+      <c r="E248" t="n">
+        <v>10</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.05485569836866645</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D249" t="n">
+        <v>200</v>
+      </c>
+      <c r="E249" t="n">
+        <v>50</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.3246890949868776</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D250" t="n">
+        <v>200</v>
+      </c>
+      <c r="E250" t="n">
+        <v>100</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.2532249267064879</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D251" t="n">
+        <v>200</v>
+      </c>
+      <c r="E251" t="n">
+        <v>200</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.5104609335759672</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D252" t="n">
+        <v>100</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.239006040981571</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D253" t="n">
+        <v>100</v>
+      </c>
+      <c r="E253" t="n">
+        <v>10</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.2962781466230899</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D254" t="n">
+        <v>100</v>
+      </c>
+      <c r="E254" t="n">
+        <v>50</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.274668435325282</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D255" t="n">
+        <v>100</v>
+      </c>
+      <c r="E255" t="n">
+        <v>100</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.2289368134015324</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D256" t="n">
+        <v>100</v>
+      </c>
+      <c r="E256" t="n">
+        <v>200</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.3115270770154492</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D257" t="n">
+        <v>200</v>
+      </c>
+      <c r="E257" t="n">
+        <v>5</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.3241007263832868</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D258" t="n">
+        <v>200</v>
+      </c>
+      <c r="E258" t="n">
+        <v>10</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.2096319142525283</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D259" t="n">
+        <v>200</v>
+      </c>
+      <c r="E259" t="n">
+        <v>50</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.1532638316674486</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D260" t="n">
+        <v>200</v>
+      </c>
+      <c r="E260" t="n">
+        <v>100</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.3494891741921308</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D261" t="n">
+        <v>200</v>
+      </c>
+      <c r="E261" t="n">
+        <v>200</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.3036686848499912</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D262" t="n">
+        <v>100</v>
+      </c>
+      <c r="E262" t="n">
+        <v>5</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.225587678653806</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D263" t="n">
+        <v>100</v>
+      </c>
+      <c r="E263" t="n">
+        <v>10</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.05439808003805182</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D264" t="n">
+        <v>100</v>
+      </c>
+      <c r="E264" t="n">
+        <v>50</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.3625565647296145</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D265" t="n">
+        <v>100</v>
+      </c>
+      <c r="E265" t="n">
+        <v>100</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.2437834435417388</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D266" t="n">
+        <v>100</v>
+      </c>
+      <c r="E266" t="n">
+        <v>200</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.7335924891846928</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D267" t="n">
+        <v>200</v>
+      </c>
+      <c r="E267" t="n">
+        <v>5</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.03417185499736523</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D268" t="n">
+        <v>200</v>
+      </c>
+      <c r="E268" t="n">
+        <v>10</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.04494677737561828</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D269" t="n">
+        <v>200</v>
+      </c>
+      <c r="E269" t="n">
+        <v>50</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.1675705376568386</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D270" t="n">
+        <v>200</v>
+      </c>
+      <c r="E270" t="n">
+        <v>100</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.2081613739373716</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D271" t="n">
+        <v>200</v>
+      </c>
+      <c r="E271" t="n">
+        <v>200</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.6368338133877047</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>100</v>
+      </c>
+      <c r="E272" t="n">
+        <v>5</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.05270925629376063</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>100</v>
+      </c>
+      <c r="E273" t="n">
+        <v>10</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.08927514176935505</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>100</v>
+      </c>
+      <c r="E274" t="n">
+        <v>50</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.2011699159087657</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D275" t="n">
+        <v>100</v>
+      </c>
+      <c r="E275" t="n">
+        <v>100</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.7192739486365568</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D276" t="n">
+        <v>100</v>
+      </c>
+      <c r="E276" t="n">
+        <v>200</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.50630174578953</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D277" t="n">
+        <v>200</v>
+      </c>
+      <c r="E277" t="n">
+        <v>5</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.03909916399392879</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>200</v>
+      </c>
+      <c r="E278" t="n">
+        <v>10</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.04965018922293688</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D279" t="n">
+        <v>200</v>
+      </c>
+      <c r="E279" t="n">
+        <v>50</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.05544246834017181</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>200</v>
+      </c>
+      <c r="E280" t="n">
+        <v>100</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.7784927923736354</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>200</v>
+      </c>
+      <c r="E281" t="n">
+        <v>200</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.7906459834049737</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D282" t="n">
+        <v>100</v>
+      </c>
+      <c r="E282" t="n">
+        <v>5</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.05178178750852683</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D283" t="n">
+        <v>100</v>
+      </c>
+      <c r="E283" t="n">
+        <v>10</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.1810796615880278</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D284" t="n">
+        <v>100</v>
+      </c>
+      <c r="E284" t="n">
+        <v>50</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.3164882277185639</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D285" t="n">
+        <v>100</v>
+      </c>
+      <c r="E285" t="n">
+        <v>100</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.3027354003912574</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D286" t="n">
+        <v>100</v>
+      </c>
+      <c r="E286" t="n">
+        <v>200</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.05806228514348528</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D287" t="n">
+        <v>200</v>
+      </c>
+      <c r="E287" t="n">
+        <v>5</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.1418461205489284</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D288" t="n">
+        <v>200</v>
+      </c>
+      <c r="E288" t="n">
+        <v>10</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.2396604784395397</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D289" t="n">
+        <v>200</v>
+      </c>
+      <c r="E289" t="n">
+        <v>50</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.2733154622287858</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D290" t="n">
+        <v>200</v>
+      </c>
+      <c r="E290" t="n">
+        <v>100</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.3300187255651331</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D291" t="n">
+        <v>200</v>
+      </c>
+      <c r="E291" t="n">
+        <v>200</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.15874027574301</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D292" t="n">
+        <v>100</v>
+      </c>
+      <c r="E292" t="n">
+        <v>5</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.1442106400837685</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D293" t="n">
+        <v>100</v>
+      </c>
+      <c r="E293" t="n">
+        <v>10</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.0993810295226336</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D294" t="n">
+        <v>100</v>
+      </c>
+      <c r="E294" t="n">
+        <v>50</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.2044111341381862</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D295" t="n">
+        <v>100</v>
+      </c>
+      <c r="E295" t="n">
+        <v>100</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.07481688685379026</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D296" t="n">
+        <v>100</v>
+      </c>
+      <c r="E296" t="n">
+        <v>200</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.3356383335190802</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D297" t="n">
+        <v>200</v>
+      </c>
+      <c r="E297" t="n">
+        <v>5</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.5030524323719112</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D298" t="n">
+        <v>200</v>
+      </c>
+      <c r="E298" t="n">
+        <v>10</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.245726713069127</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D299" t="n">
+        <v>200</v>
+      </c>
+      <c r="E299" t="n">
+        <v>50</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.2977653361524143</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D300" t="n">
+        <v>200</v>
+      </c>
+      <c r="E300" t="n">
+        <v>100</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.07023828888226276</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D301" t="n">
+        <v>200</v>
+      </c>
+      <c r="E301" t="n">
+        <v>200</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.2180428886331546</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D302" t="n">
+        <v>100</v>
+      </c>
+      <c r="E302" t="n">
+        <v>5</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.4548033500398855</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D303" t="n">
+        <v>100</v>
+      </c>
+      <c r="E303" t="n">
+        <v>10</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.3187617461534635</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D304" t="n">
+        <v>100</v>
+      </c>
+      <c r="E304" t="n">
+        <v>50</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.292505349171819</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D305" t="n">
+        <v>100</v>
+      </c>
+      <c r="E305" t="n">
+        <v>100</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.2922147540536733</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D306" t="n">
+        <v>100</v>
+      </c>
+      <c r="E306" t="n">
+        <v>200</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.2070218518117101</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D307" t="n">
+        <v>200</v>
+      </c>
+      <c r="E307" t="n">
+        <v>5</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.4969866474564986</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D308" t="n">
+        <v>200</v>
+      </c>
+      <c r="E308" t="n">
+        <v>10</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.2903570746931716</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D309" t="n">
+        <v>200</v>
+      </c>
+      <c r="E309" t="n">
+        <v>50</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.1780782956251249</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D310" t="n">
+        <v>200</v>
+      </c>
+      <c r="E310" t="n">
+        <v>100</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.3054257134680671</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D311" t="n">
+        <v>200</v>
+      </c>
+      <c r="E311" t="n">
+        <v>200</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.1791757130463064</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>100</v>
+      </c>
+      <c r="E312" t="n">
+        <v>5</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.2718685492044932</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D313" t="n">
+        <v>100</v>
+      </c>
+      <c r="E313" t="n">
+        <v>10</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.3529067151443626</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D314" t="n">
+        <v>100</v>
+      </c>
+      <c r="E314" t="n">
+        <v>50</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0.3801286190249076</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>100</v>
+      </c>
+      <c r="E315" t="n">
+        <v>100</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.2317382302668222</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>100</v>
+      </c>
+      <c r="E316" t="n">
+        <v>200</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0.1553278565161289</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>200</v>
+      </c>
+      <c r="E317" t="n">
+        <v>5</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.2538088434964946</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>200</v>
+      </c>
+      <c r="E318" t="n">
+        <v>10</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.2705479258522154</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D319" t="n">
+        <v>200</v>
+      </c>
+      <c r="E319" t="n">
+        <v>50</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.2299591392497238</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>200</v>
+      </c>
+      <c r="E320" t="n">
+        <v>100</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.5297902893469284</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>relu</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D321" t="n">
+        <v>200</v>
+      </c>
+      <c r="E321" t="n">
+        <v>200</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.2325017354178985</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D322" t="n">
+        <v>100</v>
+      </c>
+      <c r="E322" t="n">
+        <v>5</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.06374643134700134</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D323" t="n">
+        <v>100</v>
+      </c>
+      <c r="E323" t="n">
+        <v>10</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.05286915944672297</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D324" t="n">
+        <v>100</v>
+      </c>
+      <c r="E324" t="n">
+        <v>50</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.2492555646592788</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D325" t="n">
+        <v>100</v>
+      </c>
+      <c r="E325" t="n">
+        <v>100</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.3077815023491126</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D326" t="n">
+        <v>100</v>
+      </c>
+      <c r="E326" t="n">
+        <v>200</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.2858563825528438</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D327" t="n">
+        <v>200</v>
+      </c>
+      <c r="E327" t="n">
+        <v>5</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.05397064303379936</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D328" t="n">
+        <v>200</v>
+      </c>
+      <c r="E328" t="n">
+        <v>10</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.02884339459102858</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D329" t="n">
+        <v>200</v>
+      </c>
+      <c r="E329" t="n">
+        <v>50</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.1815849522368751</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D330" t="n">
+        <v>200</v>
+      </c>
+      <c r="E330" t="n">
+        <v>100</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.2700072979324351</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D331" t="n">
+        <v>200</v>
+      </c>
+      <c r="E331" t="n">
+        <v>200</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.1772142106468326</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D332" t="n">
+        <v>100</v>
+      </c>
+      <c r="E332" t="n">
+        <v>5</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0.314242367664907</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D333" t="n">
+        <v>100</v>
+      </c>
+      <c r="E333" t="n">
+        <v>10</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.144555033917308</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D334" t="n">
+        <v>100</v>
+      </c>
+      <c r="E334" t="n">
+        <v>50</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0.2761974592859991</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D335" t="n">
+        <v>100</v>
+      </c>
+      <c r="E335" t="n">
+        <v>100</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.2306542539471471</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D336" t="n">
+        <v>100</v>
+      </c>
+      <c r="E336" t="n">
+        <v>200</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.3122272918619536</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D337" t="n">
+        <v>200</v>
+      </c>
+      <c r="E337" t="n">
+        <v>5</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.05328893980148365</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D338" t="n">
+        <v>200</v>
+      </c>
+      <c r="E338" t="n">
+        <v>10</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0.04991804723864166</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D339" t="n">
+        <v>200</v>
+      </c>
+      <c r="E339" t="n">
+        <v>50</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.05333193673868143</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D340" t="n">
+        <v>200</v>
+      </c>
+      <c r="E340" t="n">
+        <v>100</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.04241317424566267</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D341" t="n">
+        <v>200</v>
+      </c>
+      <c r="E341" t="n">
+        <v>200</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.2332287434615049</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D342" t="n">
+        <v>100</v>
+      </c>
+      <c r="E342" t="n">
+        <v>5</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.06492107478488587</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D343" t="n">
+        <v>100</v>
+      </c>
+      <c r="E343" t="n">
+        <v>10</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.0734619322426345</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D344" t="n">
+        <v>100</v>
+      </c>
+      <c r="E344" t="n">
+        <v>50</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.0466487967620007</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D345" t="n">
+        <v>100</v>
+      </c>
+      <c r="E345" t="n">
+        <v>100</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.05485018825155479</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D346" t="n">
+        <v>100</v>
+      </c>
+      <c r="E346" t="n">
+        <v>200</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.2472516674723576</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D347" t="n">
+        <v>200</v>
+      </c>
+      <c r="E347" t="n">
+        <v>5</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.05160466453947966</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D348" t="n">
+        <v>200</v>
+      </c>
+      <c r="E348" t="n">
+        <v>10</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.0764894365513844</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D349" t="n">
+        <v>200</v>
+      </c>
+      <c r="E349" t="n">
+        <v>50</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.03919688413107187</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D350" t="n">
+        <v>200</v>
+      </c>
+      <c r="E350" t="n">
+        <v>100</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.1136290386559949</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D351" t="n">
+        <v>200</v>
+      </c>
+      <c r="E351" t="n">
+        <v>200</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.04883043720352575</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D352" t="n">
+        <v>100</v>
+      </c>
+      <c r="E352" t="n">
+        <v>5</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.05052126024889221</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D353" t="n">
+        <v>100</v>
+      </c>
+      <c r="E353" t="n">
+        <v>10</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.1270339628985962</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D354" t="n">
+        <v>100</v>
+      </c>
+      <c r="E354" t="n">
+        <v>50</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.08089186391071682</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D355" t="n">
+        <v>100</v>
+      </c>
+      <c r="E355" t="n">
+        <v>100</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.08962255416505702</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D356" t="n">
+        <v>100</v>
+      </c>
+      <c r="E356" t="n">
+        <v>200</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.06802254096142649</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D357" t="n">
+        <v>200</v>
+      </c>
+      <c r="E357" t="n">
+        <v>5</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0.1128682824496012</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D358" t="n">
+        <v>200</v>
+      </c>
+      <c r="E358" t="n">
+        <v>10</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0.06540922211831049</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D359" t="n">
+        <v>200</v>
+      </c>
+      <c r="E359" t="n">
+        <v>50</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.1221238098760648</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D360" t="n">
+        <v>200</v>
+      </c>
+      <c r="E360" t="n">
+        <v>100</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.1180071854859275</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D361" t="n">
+        <v>200</v>
+      </c>
+      <c r="E361" t="n">
+        <v>200</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.06165221754746041</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/exercicio4sine/results.xlsx
+++ b/exercicio4sine/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F361"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1263867895413253</v>
+        <v>0.2108578240389151</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2114146505957379</v>
+        <v>0.1516952446049536</v>
       </c>
     </row>
     <row r="4">
@@ -528,7 +528,7 @@
         <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1949507904953225</v>
+        <v>0.2216818966294234</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +550,7 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.169594433586506</v>
+        <v>0.1720997839372335</v>
       </c>
     </row>
     <row r="6">
@@ -566,13 +566,13 @@
         <v>0.005</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2807113831854943</v>
+        <v>0.2483613707769451</v>
       </c>
     </row>
     <row r="7">
@@ -591,10 +591,10 @@
         <v>200</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07814673682008903</v>
+        <v>0.227550318594007</v>
       </c>
     </row>
     <row r="8">
@@ -613,10 +613,10 @@
         <v>200</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1271788588370831</v>
+        <v>0.2178135425544981</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +635,10 @@
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2079745673941274</v>
+        <v>0.2376226180886777</v>
       </c>
     </row>
     <row r="10">
@@ -651,16 +651,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2389278128391683</v>
+        <v>0.008165630098927044</v>
       </c>
     </row>
     <row r="11">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2367878772112469</v>
+        <v>0.1710984096491143</v>
       </c>
     </row>
     <row r="12">
@@ -701,10 +701,10 @@
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>0.220846516555864</v>
+        <v>0.283514262749926</v>
       </c>
     </row>
     <row r="13">
@@ -723,10 +723,10 @@
         <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>0.007063091262747256</v>
+        <v>0.2756543311302513</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         <v>0.01</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2072961487728895</v>
+        <v>0.01090614563714632</v>
       </c>
     </row>
     <row r="15">
@@ -764,13 +764,13 @@
         <v>0.01</v>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1721719924900977</v>
+        <v>0.1745761796682103</v>
       </c>
     </row>
     <row r="16">
@@ -786,13 +786,13 @@
         <v>0.01</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E16" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1574684299135149</v>
+        <v>0.193678683540512</v>
       </c>
     </row>
     <row r="17">
@@ -811,10 +811,10 @@
         <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>0.009273585421350041</v>
+        <v>0.1904752100872374</v>
       </c>
     </row>
     <row r="18">
@@ -827,16 +827,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2145877850831023</v>
+        <v>0.00283954502655655</v>
       </c>
     </row>
     <row r="19">
@@ -849,16 +849,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2151785086698434</v>
+        <v>0.004845586601007117</v>
       </c>
     </row>
     <row r="20">
@@ -871,16 +871,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1874078506327547</v>
+        <v>0.3476123338371578</v>
       </c>
     </row>
     <row r="21">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3346071947959838</v>
+        <v>0.1595851814141459</v>
       </c>
     </row>
     <row r="22">
@@ -918,13 +918,13 @@
         <v>0.05</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0103288279520915</v>
+        <v>0.00548556859646196</v>
       </c>
     </row>
     <row r="23">
@@ -940,13 +940,13 @@
         <v>0.05</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>0.005649635393018757</v>
+        <v>0.005338167967904623</v>
       </c>
     </row>
     <row r="24">
@@ -962,13 +962,13 @@
         <v>0.05</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" t="n">
         <v>50</v>
       </c>
       <c r="F24" t="n">
-        <v>0.008564408081755463</v>
+        <v>0.5361375118165755</v>
       </c>
     </row>
     <row r="25">
@@ -984,13 +984,13 @@
         <v>0.05</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E25" t="n">
         <v>100</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2046393112163161</v>
+        <v>0.5188665207074333</v>
       </c>
     </row>
     <row r="26">
@@ -1003,16 +1003,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D26" t="n">
         <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5970925972226361</v>
+        <v>0.01677792947932119</v>
       </c>
     </row>
     <row r="27">
@@ -1025,16 +1025,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D27" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003980290603122242</v>
+        <v>0.005318893983458369</v>
       </c>
     </row>
     <row r="28">
@@ -1047,16 +1047,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D28" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003937329099030183</v>
+        <v>0.1705915899642733</v>
       </c>
     </row>
     <row r="29">
@@ -1069,16 +1069,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D29" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2829495645174046</v>
+        <v>0.5173854159667681</v>
       </c>
     </row>
     <row r="30">
@@ -1091,16 +1091,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D30" t="n">
         <v>200</v>
       </c>
       <c r="E30" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2725852344850935</v>
+        <v>0.003102852100296831</v>
       </c>
     </row>
     <row r="31">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D31" t="n">
         <v>200</v>
       </c>
       <c r="E31" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>0.49810347406249</v>
+        <v>0.00322322918258885</v>
       </c>
     </row>
     <row r="32">
@@ -1138,13 +1138,13 @@
         <v>0.1</v>
       </c>
       <c r="D32" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003695310352793416</v>
+        <v>0.01829758521569084</v>
       </c>
     </row>
     <row r="33">
@@ -1160,13 +1160,13 @@
         <v>0.1</v>
       </c>
       <c r="D33" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007754769913458115</v>
+        <v>0.5766856823303252</v>
       </c>
     </row>
     <row r="34">
@@ -1175,20 +1175,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D34" t="n">
         <v>100</v>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2808601817770865</v>
+        <v>0.4604199487334151</v>
       </c>
     </row>
     <row r="35">
@@ -1197,20 +1197,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D35" t="n">
         <v>100</v>
       </c>
       <c r="E35" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6989730516016387</v>
+        <v>0.1186711001777725</v>
       </c>
     </row>
     <row r="36">
@@ -1219,20 +1219,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D36" t="n">
         <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4550961193961726</v>
+        <v>0.2466318874494135</v>
       </c>
     </row>
     <row r="37">
@@ -1241,20 +1241,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D37" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004925482270890262</v>
+        <v>0.221564843464006</v>
       </c>
     </row>
     <row r="38">
@@ -1263,20 +1263,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D38" t="n">
         <v>200</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003601404968190989</v>
+        <v>0.1413674559175828</v>
       </c>
     </row>
     <row r="39">
@@ -1285,20 +1285,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D39" t="n">
         <v>200</v>
       </c>
       <c r="E39" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2995590883082203</v>
+        <v>0.187958159340072</v>
       </c>
     </row>
     <row r="40">
@@ -1307,20 +1307,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D40" t="n">
         <v>200</v>
       </c>
       <c r="E40" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7808081531269973</v>
+        <v>0.1623953614458422</v>
       </c>
     </row>
     <row r="41">
@@ -1329,20 +1329,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D41" t="n">
         <v>200</v>
       </c>
       <c r="E41" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7149750761086312</v>
+        <v>0.1374380477801192</v>
       </c>
     </row>
     <row r="42">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D42" t="n">
         <v>100</v>
@@ -1364,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1588637386258696</v>
+        <v>0.2080867374618041</v>
       </c>
     </row>
     <row r="43">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D43" t="n">
         <v>100</v>
@@ -1386,7 +1386,7 @@
         <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1805600297624299</v>
+        <v>0.1549238904887273</v>
       </c>
     </row>
     <row r="44">
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D44" t="n">
         <v>100</v>
@@ -1408,7 +1408,7 @@
         <v>50</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1404839264884844</v>
+        <v>0.0580830260860212</v>
       </c>
     </row>
     <row r="45">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D45" t="n">
         <v>100</v>
@@ -1430,7 +1430,7 @@
         <v>100</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1356896495884144</v>
+        <v>0.007068682440278187</v>
       </c>
     </row>
     <row r="46">
@@ -1443,16 +1443,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D46" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>0.04895532521841033</v>
+        <v>0.1498600786057564</v>
       </c>
     </row>
     <row r="47">
@@ -1465,16 +1465,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D47" t="n">
         <v>200</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1366781959804165</v>
+        <v>0.1889430751200806</v>
       </c>
     </row>
     <row r="48">
@@ -1487,16 +1487,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D48" t="n">
         <v>200</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2699258992317229</v>
+        <v>0.1716278670773198</v>
       </c>
     </row>
     <row r="49">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D49" t="n">
         <v>200</v>
       </c>
       <c r="E49" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01473067110434745</v>
+        <v>0.02120143406304517</v>
       </c>
     </row>
     <row r="50">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D50" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E50" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007914765870561823</v>
+        <v>0.1649044096375459</v>
       </c>
     </row>
     <row r="51">
@@ -1553,16 +1553,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D51" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E51" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01329865684220114</v>
+        <v>0.2191750108976366</v>
       </c>
     </row>
     <row r="52">
@@ -1575,16 +1575,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D52" t="n">
         <v>100</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1655415205757496</v>
+        <v>0.1848694453628974</v>
       </c>
     </row>
     <row r="53">
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D53" t="n">
         <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1039051154244361</v>
+        <v>0.3964042255450227</v>
       </c>
     </row>
     <row r="54">
@@ -1619,16 +1619,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D54" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>0.009274480821241254</v>
+        <v>0.2109441976538288</v>
       </c>
     </row>
     <row r="55">
@@ -1641,16 +1641,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D55" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E55" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>0.008023905089909158</v>
+        <v>0.1789046205911791</v>
       </c>
     </row>
     <row r="56">
@@ -1663,16 +1663,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D56" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E56" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2278861594426649</v>
+        <v>0.2159885994141965</v>
       </c>
     </row>
     <row r="57">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D57" t="n">
         <v>200</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7497048841625086</v>
+        <v>0.3017714534760641</v>
       </c>
     </row>
     <row r="58">
@@ -1707,16 +1707,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D58" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1313464489932144</v>
+        <v>0.2365345385111359</v>
       </c>
     </row>
     <row r="59">
@@ -1729,16 +1729,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003266154408500213</v>
+        <v>0.3877062127359744</v>
       </c>
     </row>
     <row r="60">
@@ -1751,16 +1751,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D60" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01158774818776977</v>
+        <v>0.1710596157315716</v>
       </c>
     </row>
     <row r="61">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D61" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005187893986306097</v>
+        <v>0.1517392809037289</v>
       </c>
     </row>
     <row r="62">
@@ -1795,16 +1795,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D62" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6594725859869545</v>
+        <v>0.2298967219253258</v>
       </c>
     </row>
     <row r="63">
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D63" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2145144570738448</v>
+        <v>0.1803270430653354</v>
       </c>
     </row>
     <row r="64">
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D64" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E64" t="n">
         <v>50</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1695806486636273</v>
+        <v>0.1304035027845981</v>
       </c>
     </row>
     <row r="65">
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D65" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E65" t="n">
         <v>100</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1953774083917911</v>
+        <v>0.1316278319994022</v>
       </c>
     </row>
     <row r="66">
@@ -1879,20 +1879,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D66" t="n">
         <v>100</v>
       </c>
       <c r="E66" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01144112624597625</v>
+        <v>0.008273667118566223</v>
       </c>
     </row>
     <row r="67">
@@ -1901,20 +1901,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D67" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1973609883069484</v>
+        <v>0.007143606746341373</v>
       </c>
     </row>
     <row r="68">
@@ -1923,20 +1923,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D68" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2516226629759586</v>
+        <v>0.1779721773372862</v>
       </c>
     </row>
     <row r="69">
@@ -1945,20 +1945,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E69" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F69" t="n">
-        <v>0.006426945307520446</v>
+        <v>0.1288466017104714</v>
       </c>
     </row>
     <row r="70">
@@ -1967,20 +1967,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D70" t="n">
         <v>200</v>
       </c>
       <c r="E70" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5804212303685323</v>
+        <v>0.006174783429263643</v>
       </c>
     </row>
     <row r="71">
@@ -1989,20 +1989,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D71" t="n">
         <v>200</v>
       </c>
       <c r="E71" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>0.148998204659147</v>
+        <v>0.004099723889709359</v>
       </c>
     </row>
     <row r="72">
@@ -2011,20 +2011,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D72" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1635977855931289</v>
+        <v>0.004840276675763639</v>
       </c>
     </row>
     <row r="73">
@@ -2033,20 +2033,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1473651662627793</v>
+        <v>0.1564274687311778</v>
       </c>
     </row>
     <row r="74">
@@ -2055,20 +2055,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D74" t="n">
         <v>100</v>
       </c>
       <c r="E74" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1668956243253964</v>
+        <v>0.004266753382727183</v>
       </c>
     </row>
     <row r="75">
@@ -2077,20 +2077,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D75" t="n">
         <v>100</v>
       </c>
       <c r="E75" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4837326941603043</v>
+        <v>0.005201447722906565</v>
       </c>
     </row>
     <row r="76">
@@ -2099,20 +2099,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D76" t="n">
         <v>100</v>
       </c>
       <c r="E76" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F76" t="n">
-        <v>0.386206313294668</v>
+        <v>0.2079632283897774</v>
       </c>
     </row>
     <row r="77">
@@ -2121,20 +2121,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D77" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4431882948605876</v>
+        <v>0.1533414587936638</v>
       </c>
     </row>
     <row r="78">
@@ -2143,20 +2143,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D78" t="n">
         <v>200</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7794239906063537</v>
+        <v>0.005160032794614328</v>
       </c>
     </row>
     <row r="79">
@@ -2165,20 +2165,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D79" t="n">
         <v>200</v>
       </c>
       <c r="E79" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1555744033407706</v>
+        <v>0.005084053440105712</v>
       </c>
     </row>
     <row r="80">
@@ -2187,20 +2187,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D80" t="n">
         <v>200</v>
       </c>
       <c r="E80" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F80" t="n">
-        <v>0.02263465554880179</v>
+        <v>0.1936261967337957</v>
       </c>
     </row>
     <row r="81">
@@ -2209,20 +2209,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D81" t="n">
         <v>200</v>
       </c>
       <c r="E81" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5734855124943822</v>
+        <v>0.005625906754164535</v>
       </c>
     </row>
     <row r="82">
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D82" t="n">
         <v>100</v>
@@ -2244,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>0.006988065795473177</v>
+        <v>0.004101752285564779</v>
       </c>
     </row>
     <row r="83">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D83" t="n">
         <v>100</v>
@@ -2266,7 +2266,7 @@
         <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>0.006224706914324509</v>
+        <v>0.009969826506467978</v>
       </c>
     </row>
     <row r="84">
@@ -2279,7 +2279,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D84" t="n">
         <v>100</v>
@@ -2288,7 +2288,7 @@
         <v>50</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2472489718142991</v>
+        <v>0.005178258202756342</v>
       </c>
     </row>
     <row r="85">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D85" t="n">
         <v>100</v>
@@ -2310,7 +2310,7 @@
         <v>100</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1709237375241282</v>
+        <v>0.01395786831225244</v>
       </c>
     </row>
     <row r="86">
@@ -2323,16 +2323,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D86" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E86" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2394887492279243</v>
+        <v>0.002032929388696954</v>
       </c>
     </row>
     <row r="87">
@@ -2345,16 +2345,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D87" t="n">
         <v>200</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F87" t="n">
-        <v>0.007303482013404776</v>
+        <v>0.003592956260521008</v>
       </c>
     </row>
     <row r="88">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D88" t="n">
         <v>200</v>
       </c>
       <c r="E88" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F88" t="n">
-        <v>0.009335540317683412</v>
+        <v>0.003983142424059661</v>
       </c>
     </row>
     <row r="89">
@@ -2389,16 +2389,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D89" t="n">
         <v>200</v>
       </c>
       <c r="E89" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F89" t="n">
-        <v>0.008106725250192254</v>
+        <v>0.007131953435351812</v>
       </c>
     </row>
     <row r="90">
@@ -2411,16 +2411,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D90" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E90" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2227112302558809</v>
+        <v>0.00427753168122751</v>
       </c>
     </row>
     <row r="91">
@@ -2433,16 +2433,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D91" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E91" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1788385116025133</v>
+        <v>0.02962661719734684</v>
       </c>
     </row>
     <row r="92">
@@ -2455,16 +2455,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D92" t="n">
         <v>100</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00606581920532872</v>
+        <v>0.01526900927635019</v>
       </c>
     </row>
     <row r="93">
@@ -2477,16 +2477,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D93" t="n">
         <v>100</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F93" t="n">
-        <v>0.007262424048723872</v>
+        <v>0.01101961554873287</v>
       </c>
     </row>
     <row r="94">
@@ -2499,16 +2499,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D94" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E94" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2994494469067635</v>
+        <v>0.004001239708374285</v>
       </c>
     </row>
     <row r="95">
@@ -2521,16 +2521,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D95" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E95" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>0.003967032364359873</v>
+        <v>0.0189601275089445</v>
       </c>
     </row>
     <row r="96">
@@ -2543,16 +2543,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D96" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E96" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2514636161383028</v>
+        <v>0.01978987794403958</v>
       </c>
     </row>
     <row r="97">
@@ -2565,544 +2565,544 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D97" t="n">
         <v>200</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004568731259499557</v>
+        <v>0.0117919234123852</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D98" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004510008350850757</v>
+        <v>0.03415217491304717</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D99" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E99" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1621397562198314</v>
+        <v>0.04562026393044951</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D100" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E100" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1902112211963799</v>
+        <v>0.2545596508742508</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D101" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E101" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1676023134401418</v>
+        <v>0.2317599033711378</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D102" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
       </c>
       <c r="F102" t="n">
-        <v>0.003044851896046756</v>
+        <v>0.3086916391057622</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D103" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E103" t="n">
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>0.01242422456303606</v>
+        <v>0.1656151882613976</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D104" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E104" t="n">
         <v>50</v>
       </c>
       <c r="F104" t="n">
-        <v>0.005356815537770389</v>
+        <v>0.2275962163207836</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D105" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E105" t="n">
         <v>100</v>
       </c>
       <c r="F105" t="n">
-        <v>0.005795973085182068</v>
+        <v>0.2471435621880938</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D106" t="n">
         <v>100</v>
       </c>
       <c r="E106" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F106" t="n">
-        <v>0.008544028048258755</v>
+        <v>0.01381569198142295</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D107" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>0.005224830943996625</v>
+        <v>0.01270152737322914</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D108" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E108" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F108" t="n">
-        <v>0.00372772181024295</v>
+        <v>0.221993204977574</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D109" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E109" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01722587774318311</v>
+        <v>0.2895422719927326</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D110" t="n">
         <v>200</v>
       </c>
       <c r="E110" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F110" t="n">
-        <v>0.01133622097866763</v>
+        <v>0.02522518714352166</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D111" t="n">
         <v>200</v>
       </c>
       <c r="E111" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>0.009548641356250233</v>
+        <v>0.2019545675654572</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D112" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F112" t="n">
-        <v>0.009239365237826343</v>
+        <v>0.2722377428838064</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D113" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E113" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F113" t="n">
-        <v>0.006005812919128991</v>
+        <v>0.2386957033234037</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D114" t="n">
         <v>100</v>
       </c>
       <c r="E114" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F114" t="n">
-        <v>0.01012413069670604</v>
+        <v>0.01243849603996946</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D115" t="n">
         <v>100</v>
       </c>
       <c r="E115" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F115" t="n">
-        <v>0.01344727750533376</v>
+        <v>0.3228671188124071</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D116" t="n">
         <v>100</v>
       </c>
       <c r="E116" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F116" t="n">
-        <v>0.02393001369080002</v>
+        <v>0.2301560136837021</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D117" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E117" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F117" t="n">
-        <v>0.003794981240163357</v>
+        <v>0.5370415540540605</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D118" t="n">
         <v>200</v>
       </c>
       <c r="E118" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0129224285384313</v>
+        <v>0.01239107515950671</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D119" t="n">
         <v>200</v>
       </c>
       <c r="E119" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0121481299061089</v>
+        <v>0.006822610132420039</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D120" t="n">
         <v>200</v>
       </c>
       <c r="E120" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F120" t="n">
-        <v>0.02106945689947266</v>
+        <v>0.229309820314493</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D121" t="n">
         <v>200</v>
       </c>
       <c r="E121" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0322692992031043</v>
+        <v>0.2440614876105181</v>
       </c>
     </row>
     <row r="122">
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D122" t="n">
         <v>100</v>
@@ -3124,7 +3124,7 @@
         <v>5</v>
       </c>
       <c r="F122" t="n">
-        <v>0.02205550842456807</v>
+        <v>0.01294932461780065</v>
       </c>
     </row>
     <row r="123">
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D123" t="n">
         <v>100</v>
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1274292795587892</v>
+        <v>0.01645758567644568</v>
       </c>
     </row>
     <row r="124">
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D124" t="n">
         <v>100</v>
@@ -3168,7 +3168,7 @@
         <v>50</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1936132350966171</v>
+        <v>0.3020079190046653</v>
       </c>
     </row>
     <row r="125">
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D125" t="n">
         <v>100</v>
@@ -3190,7 +3190,7 @@
         <v>100</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2135990944647856</v>
+        <v>0.5755088221681025</v>
       </c>
     </row>
     <row r="126">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D126" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E126" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1916106555339376</v>
+        <v>0.01458186897244651</v>
       </c>
     </row>
     <row r="127">
@@ -3225,16 +3225,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D127" t="n">
         <v>200</v>
       </c>
       <c r="E127" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2944813635354968</v>
+        <v>0.01363866462633489</v>
       </c>
     </row>
     <row r="128">
@@ -3247,16 +3247,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D128" t="n">
         <v>200</v>
       </c>
       <c r="E128" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1770781155367178</v>
+        <v>0.2557446923056256</v>
       </c>
     </row>
     <row r="129">
@@ -3269,16 +3269,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D129" t="n">
         <v>200</v>
       </c>
       <c r="E129" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2074008517994904</v>
+        <v>0.6378515113288477</v>
       </c>
     </row>
     <row r="130">
@@ -3287,20 +3287,20 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C130" t="n">
         <v>0.005</v>
       </c>
       <c r="D130" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E130" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F130" t="n">
-        <v>0.294695617909033</v>
+        <v>0.1738511813516155</v>
       </c>
     </row>
     <row r="131">
@@ -3309,20 +3309,20 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>0.005</v>
       </c>
       <c r="D131" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E131" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2560806148100164</v>
+        <v>0.2265926819763018</v>
       </c>
     </row>
     <row r="132">
@@ -3331,20 +3331,20 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D132" t="n">
         <v>100</v>
       </c>
       <c r="E132" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F132" t="n">
-        <v>0.01462999407666212</v>
+        <v>0.01997080066988161</v>
       </c>
     </row>
     <row r="133">
@@ -3353,20 +3353,20 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D133" t="n">
         <v>100</v>
       </c>
       <c r="E133" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1896657116077513</v>
+        <v>0.1853693401386927</v>
       </c>
     </row>
     <row r="134">
@@ -3375,20 +3375,20 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D134" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E134" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F134" t="n">
-        <v>0.209398602800979</v>
+        <v>0.2157387083690696</v>
       </c>
     </row>
     <row r="135">
@@ -3397,20 +3397,20 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D135" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E135" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F135" t="n">
-        <v>0.2209289916566741</v>
+        <v>0.1851654682442691</v>
       </c>
     </row>
     <row r="136">
@@ -3419,20 +3419,20 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D136" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E136" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2971675632379508</v>
+        <v>0.1357211566652207</v>
       </c>
     </row>
     <row r="137">
@@ -3441,20 +3441,20 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D137" t="n">
         <v>200</v>
       </c>
       <c r="E137" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2461162909373566</v>
+        <v>0.01385531300473461</v>
       </c>
     </row>
     <row r="138">
@@ -3463,20 +3463,20 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C138" t="n">
         <v>0.01</v>
       </c>
       <c r="D138" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E138" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F138" t="n">
-        <v>0.02043150894205133</v>
+        <v>0.1394824793543462</v>
       </c>
     </row>
     <row r="139">
@@ -3485,20 +3485,20 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>0.01</v>
       </c>
       <c r="D139" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E139" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F139" t="n">
-        <v>0.35574525766145</v>
+        <v>0.02628178132083624</v>
       </c>
     </row>
     <row r="140">
@@ -3507,20 +3507,20 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C140" t="n">
         <v>0.01</v>
       </c>
       <c r="D140" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E140" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1935646267955138</v>
+        <v>0.01995841581194143</v>
       </c>
     </row>
     <row r="141">
@@ -3529,20 +3529,20 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>0.01</v>
       </c>
       <c r="D141" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E141" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F141" t="n">
-        <v>0.2756467040644631</v>
+        <v>0.2689276923133034</v>
       </c>
     </row>
     <row r="142">
@@ -3551,20 +3551,20 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D142" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
       </c>
       <c r="F142" t="n">
-        <v>0.01155912535345424</v>
+        <v>0.5032344884246611</v>
       </c>
     </row>
     <row r="143">
@@ -3573,20 +3573,20 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D143" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>0.01967074417925789</v>
+        <v>0.1501618079940868</v>
       </c>
     </row>
     <row r="144">
@@ -3595,20 +3595,20 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D144" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E144" t="n">
         <v>50</v>
       </c>
       <c r="F144" t="n">
-        <v>0.2356653134717112</v>
+        <v>0.01553473018733739</v>
       </c>
     </row>
     <row r="145">
@@ -3617,20 +3617,20 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D145" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E145" t="n">
         <v>100</v>
       </c>
       <c r="F145" t="n">
-        <v>0.332382094656046</v>
+        <v>0.1544258124359231</v>
       </c>
     </row>
     <row r="146">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3649,10 +3649,10 @@
         <v>100</v>
       </c>
       <c r="E146" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F146" t="n">
-        <v>0.5364703419075318</v>
+        <v>0.3549388989271816</v>
       </c>
     </row>
     <row r="147">
@@ -3661,20 +3661,20 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>0.05</v>
       </c>
       <c r="D147" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E147" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>0.01355150956548454</v>
+        <v>0.2444569017683166</v>
       </c>
     </row>
     <row r="148">
@@ -3683,20 +3683,20 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C148" t="n">
         <v>0.05</v>
       </c>
       <c r="D148" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E148" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F148" t="n">
-        <v>0.00967024120344287</v>
+        <v>0.170691598511219</v>
       </c>
     </row>
     <row r="149">
@@ -3705,20 +3705,20 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C149" t="n">
         <v>0.05</v>
       </c>
       <c r="D149" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E149" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F149" t="n">
-        <v>0.2364435778389412</v>
+        <v>0.1486686707865336</v>
       </c>
     </row>
     <row r="150">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -3737,10 +3737,10 @@
         <v>200</v>
       </c>
       <c r="E150" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F150" t="n">
-        <v>0.2157357083901718</v>
+        <v>0.1795627128062446</v>
       </c>
     </row>
     <row r="151">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -3759,10 +3759,10 @@
         <v>200</v>
       </c>
       <c r="E151" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6066001686086557</v>
+        <v>0.3335879527179421</v>
       </c>
     </row>
     <row r="152">
@@ -3771,20 +3771,20 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D152" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E152" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F152" t="n">
-        <v>0.01151159652200778</v>
+        <v>0.09796125300075136</v>
       </c>
     </row>
     <row r="153">
@@ -3793,20 +3793,20 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D153" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E153" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F153" t="n">
-        <v>0.02816365541531884</v>
+        <v>0.2575220293389467</v>
       </c>
     </row>
     <row r="154">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -3825,10 +3825,10 @@
         <v>100</v>
       </c>
       <c r="E154" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F154" t="n">
-        <v>0.4815467445873413</v>
+        <v>0.2667597815928887</v>
       </c>
     </row>
     <row r="155">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -3847,10 +3847,10 @@
         <v>100</v>
       </c>
       <c r="E155" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F155" t="n">
-        <v>0.8537855624904069</v>
+        <v>0.07103308892043765</v>
       </c>
     </row>
     <row r="156">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -3869,10 +3869,10 @@
         <v>100</v>
       </c>
       <c r="E156" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6085239750741298</v>
+        <v>0.1867028868128509</v>
       </c>
     </row>
     <row r="157">
@@ -3881,20 +3881,20 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C157" t="n">
         <v>0.1</v>
       </c>
       <c r="D157" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E157" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F157" t="n">
-        <v>0.01218228781628223</v>
+        <v>0.4901006239970715</v>
       </c>
     </row>
     <row r="158">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -3913,10 +3913,10 @@
         <v>200</v>
       </c>
       <c r="E158" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F158" t="n">
-        <v>0.04169157092790321</v>
+        <v>0.1180296076440852</v>
       </c>
     </row>
     <row r="159">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -3935,10 +3935,10 @@
         <v>200</v>
       </c>
       <c r="E159" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F159" t="n">
-        <v>0.266616493206262</v>
+        <v>0.2404866851217421</v>
       </c>
     </row>
     <row r="160">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3957,10 +3957,10 @@
         <v>200</v>
       </c>
       <c r="E160" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F160" t="n">
-        <v>0.497494687829377</v>
+        <v>0.2719819930588347</v>
       </c>
     </row>
     <row r="161">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3979,10 +3979,10 @@
         <v>200</v>
       </c>
       <c r="E161" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6078965434926347</v>
+        <v>0.2400300190451816</v>
       </c>
     </row>
     <row r="162">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -4004,7 +4004,7 @@
         <v>5</v>
       </c>
       <c r="F162" t="n">
-        <v>0.2110714930594963</v>
+        <v>0.01278623586162768</v>
       </c>
     </row>
     <row r="163">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -4026,7 +4026,7 @@
         <v>10</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1617890157924921</v>
+        <v>0.01827188122609935</v>
       </c>
     </row>
     <row r="164">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -4048,7 +4048,7 @@
         <v>50</v>
       </c>
       <c r="F164" t="n">
-        <v>0.2434923919784096</v>
+        <v>0.1897574601490954</v>
       </c>
     </row>
     <row r="165">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -4070,7 +4070,7 @@
         <v>100</v>
       </c>
       <c r="F165" t="n">
-        <v>0.02448165106065757</v>
+        <v>0.1778778234738894</v>
       </c>
     </row>
     <row r="166">
@@ -4079,20 +4079,20 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C166" t="n">
         <v>0.005</v>
       </c>
       <c r="D166" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E166" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F166" t="n">
-        <v>0.02553672168443278</v>
+        <v>0.01316245967801012</v>
       </c>
     </row>
     <row r="167">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -4111,10 +4111,10 @@
         <v>200</v>
       </c>
       <c r="E167" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F167" t="n">
-        <v>0.2149521491867943</v>
+        <v>0.01453384859812854</v>
       </c>
     </row>
     <row r="168">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -4133,10 +4133,10 @@
         <v>200</v>
       </c>
       <c r="E168" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F168" t="n">
-        <v>0.1872855218318688</v>
+        <v>0.172887816927555</v>
       </c>
     </row>
     <row r="169">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -4155,10 +4155,10 @@
         <v>200</v>
       </c>
       <c r="E169" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F169" t="n">
-        <v>0.02892011972626129</v>
+        <v>0.2120722348152749</v>
       </c>
     </row>
     <row r="170">
@@ -4167,20 +4167,20 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D170" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E170" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F170" t="n">
-        <v>0.02355199235465343</v>
+        <v>0.02019068524084733</v>
       </c>
     </row>
     <row r="171">
@@ -4189,20 +4189,20 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D171" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E171" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F171" t="n">
-        <v>0.1612658422179844</v>
+        <v>0.01215766570283467</v>
       </c>
     </row>
     <row r="172">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -4221,10 +4221,10 @@
         <v>100</v>
       </c>
       <c r="E172" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F172" t="n">
-        <v>0.2243483748452234</v>
+        <v>0.02047759042604146</v>
       </c>
     </row>
     <row r="173">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -4243,10 +4243,10 @@
         <v>100</v>
       </c>
       <c r="E173" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F173" t="n">
-        <v>0.1616113630417036</v>
+        <v>0.2149025120272553</v>
       </c>
     </row>
     <row r="174">
@@ -4255,20 +4255,20 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>0.01</v>
       </c>
       <c r="D174" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E174" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F174" t="n">
-        <v>0.2587643680344059</v>
+        <v>0.2519496592701435</v>
       </c>
     </row>
     <row r="175">
@@ -4277,20 +4277,20 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C175" t="n">
         <v>0.01</v>
       </c>
       <c r="D175" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E175" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F175" t="n">
-        <v>0.1262159073153302</v>
+        <v>0.01595755648157488</v>
       </c>
     </row>
     <row r="176">
@@ -4299,20 +4299,20 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C176" t="n">
         <v>0.01</v>
       </c>
       <c r="D176" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E176" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F176" t="n">
-        <v>0.01794768065583786</v>
+        <v>0.01059514145401459</v>
       </c>
     </row>
     <row r="177">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4331,10 +4331,10 @@
         <v>200</v>
       </c>
       <c r="E177" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F177" t="n">
-        <v>0.1552517545202532</v>
+        <v>0.2380322711881539</v>
       </c>
     </row>
     <row r="178">
@@ -4343,20 +4343,20 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D178" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E178" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F178" t="n">
-        <v>0.2013891161098149</v>
+        <v>0.03767303355098005</v>
       </c>
     </row>
     <row r="179">
@@ -4365,20 +4365,20 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D179" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E179" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F179" t="n">
-        <v>0.1532772387657365</v>
+        <v>0.02928652273139515</v>
       </c>
     </row>
     <row r="180">
@@ -4387,20 +4387,20 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D180" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E180" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F180" t="n">
-        <v>0.03538545166749978</v>
+        <v>0.01843505023578155</v>
       </c>
     </row>
     <row r="181">
@@ -4409,20 +4409,20 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D181" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E181" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F181" t="n">
-        <v>0.1853846697912576</v>
+        <v>0.009120709093013903</v>
       </c>
     </row>
     <row r="182">
@@ -4431,20 +4431,20 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C182" t="n">
         <v>0.05</v>
       </c>
       <c r="D182" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
       </c>
       <c r="F182" t="n">
-        <v>0.1435321049660987</v>
+        <v>0.0209750015889135</v>
       </c>
     </row>
     <row r="183">
@@ -4453,20 +4453,20 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C183" t="n">
         <v>0.05</v>
       </c>
       <c r="D183" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
       </c>
       <c r="F183" t="n">
-        <v>0.1630115910914967</v>
+        <v>0.0229692453641004</v>
       </c>
     </row>
     <row r="184">
@@ -4475,20 +4475,20 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C184" t="n">
         <v>0.05</v>
       </c>
       <c r="D184" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E184" t="n">
         <v>50</v>
       </c>
       <c r="F184" t="n">
-        <v>0.1663652236753141</v>
+        <v>0.02534595206017297</v>
       </c>
     </row>
     <row r="185">
@@ -4497,20 +4497,20 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C185" t="n">
         <v>0.05</v>
       </c>
       <c r="D185" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E185" t="n">
         <v>100</v>
       </c>
       <c r="F185" t="n">
-        <v>0.1349387612966964</v>
+        <v>0.01828587968799569</v>
       </c>
     </row>
     <row r="186">
@@ -4519,20 +4519,20 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D186" t="n">
         <v>100</v>
       </c>
       <c r="E186" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F186" t="n">
-        <v>0.1487362795043802</v>
+        <v>0.01743701692181118</v>
       </c>
     </row>
     <row r="187">
@@ -4541,20 +4541,20 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D187" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E187" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F187" t="n">
-        <v>0.2202135933359312</v>
+        <v>0.03151816770509929</v>
       </c>
     </row>
     <row r="188">
@@ -4563,20 +4563,20 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D188" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E188" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F188" t="n">
-        <v>0.137577592896466</v>
+        <v>0.0242960491863079</v>
       </c>
     </row>
     <row r="189">
@@ -4585,20 +4585,20 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D189" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E189" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F189" t="n">
-        <v>0.02885930731645795</v>
+        <v>0.03435268121130976</v>
       </c>
     </row>
     <row r="190">
@@ -4607,20 +4607,20 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D190" t="n">
         <v>200</v>
       </c>
       <c r="E190" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F190" t="n">
-        <v>0.06702593141710719</v>
+        <v>0.02414174349667759</v>
       </c>
     </row>
     <row r="191">
@@ -4629,20 +4629,20 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D191" t="n">
         <v>200</v>
       </c>
       <c r="E191" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F191" t="n">
-        <v>0.1679809550315605</v>
+        <v>0.02762255595585483</v>
       </c>
     </row>
     <row r="192">
@@ -4651,20 +4651,20 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C192" t="n">
         <v>0.1</v>
       </c>
       <c r="D192" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E192" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F192" t="n">
-        <v>0.1579965154993352</v>
+        <v>0.01559084069827111</v>
       </c>
     </row>
     <row r="193">
@@ -4673,209 +4673,209 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C193" t="n">
         <v>0.1</v>
       </c>
       <c r="D193" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E193" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F193" t="n">
-        <v>0.179049762049087</v>
+        <v>0.03213655057566646</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D194" t="n">
         <v>100</v>
       </c>
       <c r="E194" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F194" t="n">
-        <v>0.1811287119786049</v>
+        <v>0.2682012279371396</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D195" t="n">
         <v>100</v>
       </c>
       <c r="E195" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F195" t="n">
-        <v>0.2434783558648769</v>
+        <v>0.3042205505035954</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D196" t="n">
         <v>100</v>
       </c>
       <c r="E196" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F196" t="n">
-        <v>0.7072013417849202</v>
+        <v>0.2294104479011604</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D197" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E197" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F197" t="n">
-        <v>0.1205830498197107</v>
+        <v>0.3717289134905526</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D198" t="n">
         <v>200</v>
       </c>
       <c r="E198" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F198" t="n">
-        <v>1.045022622752986</v>
+        <v>0.1026693976408459</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D199" t="n">
         <v>200</v>
       </c>
       <c r="E199" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F199" t="n">
-        <v>0.1674201002191347</v>
+        <v>0.1959222525967589</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D200" t="n">
         <v>200</v>
       </c>
       <c r="E200" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F200" t="n">
-        <v>0.1564412986520773</v>
+        <v>0.260964994648071</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D201" t="n">
         <v>200</v>
       </c>
       <c r="E201" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F201" t="n">
-        <v>0.1702225673436207</v>
+        <v>0.3008885413613506</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D202" t="n">
         <v>100</v>
@@ -4884,20 +4884,20 @@
         <v>5</v>
       </c>
       <c r="F202" t="n">
-        <v>0.01829236366542303</v>
+        <v>0.2037407864765576</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D203" t="n">
         <v>100</v>
@@ -4906,20 +4906,20 @@
         <v>10</v>
       </c>
       <c r="F203" t="n">
-        <v>0.3074725030306929</v>
+        <v>0.2799159898189327</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D204" t="n">
         <v>100</v>
@@ -4928,20 +4928,20 @@
         <v>50</v>
       </c>
       <c r="F204" t="n">
-        <v>0.1986050475187592</v>
+        <v>0.3604308460613183</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D205" t="n">
         <v>100</v>
@@ -4950,799 +4950,799 @@
         <v>100</v>
       </c>
       <c r="F205" t="n">
-        <v>0.2214441375446349</v>
+        <v>0.2036996402444677</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D206" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E206" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F206" t="n">
-        <v>0.1628464184843115</v>
+        <v>0.2476268374035672</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D207" t="n">
         <v>200</v>
       </c>
       <c r="E207" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F207" t="n">
-        <v>0.2346333478679587</v>
+        <v>0.03732968793517692</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D208" t="n">
         <v>200</v>
       </c>
       <c r="E208" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F208" t="n">
-        <v>0.2973690282352699</v>
+        <v>0.3028471431884617</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D209" t="n">
         <v>200</v>
       </c>
       <c r="E209" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F209" t="n">
-        <v>0.2486208878600587</v>
+        <v>0.5003515246405807</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D210" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E210" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F210" t="n">
-        <v>0.185786358039336</v>
+        <v>0.06211161986521745</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D211" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E211" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F211" t="n">
-        <v>0.2304382155688386</v>
+        <v>0.04046710337845576</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D212" t="n">
         <v>100</v>
       </c>
       <c r="E212" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F212" t="n">
-        <v>0.02048291864121804</v>
+        <v>0.3639302757568979</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D213" t="n">
         <v>100</v>
       </c>
       <c r="E213" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F213" t="n">
-        <v>0.3290820168529274</v>
+        <v>0.3137832415263999</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D214" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E214" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F214" t="n">
-        <v>0.2026733733737746</v>
+        <v>0.0481090567364623</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D215" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E215" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F215" t="n">
-        <v>0.1964764076378246</v>
+        <v>0.05708343616421705</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D216" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E216" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F216" t="n">
-        <v>0.2371168177845114</v>
+        <v>0.3328416131767069</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D217" t="n">
         <v>200</v>
       </c>
       <c r="E217" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F217" t="n">
-        <v>0.01532386538606284</v>
+        <v>0.4294146824666521</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D218" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E218" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F218" t="n">
-        <v>0.01548282910106856</v>
+        <v>0.04222965415421288</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D219" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E219" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F219" t="n">
-        <v>0.01676025549228332</v>
+        <v>0.03144267133518655</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D220" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E220" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F220" t="n">
-        <v>0.007219504401122875</v>
+        <v>0.3968129822342316</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D221" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E221" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F221" t="n">
-        <v>0.01109847479344953</v>
+        <v>0.4549923727162105</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D222" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
       </c>
       <c r="F222" t="n">
-        <v>0.01855612967498755</v>
+        <v>0.05522140256766062</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D223" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
       </c>
       <c r="F223" t="n">
-        <v>0.01577336617297546</v>
+        <v>0.0348071594897796</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D224" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E224" t="n">
         <v>50</v>
       </c>
       <c r="F224" t="n">
-        <v>0.01619935908328427</v>
+        <v>0.2698244514898699</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>sigmoid</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D225" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E225" t="n">
         <v>100</v>
       </c>
       <c r="F225" t="n">
-        <v>0.02263826977909803</v>
+        <v>0.5741996370191457</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D226" t="n">
         <v>100</v>
       </c>
       <c r="E226" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F226" t="n">
-        <v>0.04549655045429037</v>
+        <v>0.2129237821503776</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D227" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E227" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F227" t="n">
-        <v>0.01312682462578365</v>
+        <v>0.2145771115773636</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D228" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E228" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F228" t="n">
-        <v>0.008812444854240795</v>
+        <v>0.1294508899648154</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D229" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E229" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F229" t="n">
-        <v>0.02608107715979378</v>
+        <v>0.3041889849095999</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D230" t="n">
         <v>200</v>
       </c>
       <c r="E230" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F230" t="n">
-        <v>0.01758703346985199</v>
+        <v>0.1937144193531765</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D231" t="n">
         <v>200</v>
       </c>
       <c r="E231" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F231" t="n">
-        <v>0.02799937174898788</v>
+        <v>0.136241275139154</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D232" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E232" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F232" t="n">
-        <v>0.05842235054702667</v>
+        <v>0.2441923472404743</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="D233" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E233" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F233" t="n">
-        <v>0.01819488686556203</v>
+        <v>0.1991505509804816</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D234" t="n">
         <v>100</v>
       </c>
       <c r="E234" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F234" t="n">
-        <v>0.02591059452633482</v>
+        <v>0.622938645506471</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D235" t="n">
         <v>100</v>
       </c>
       <c r="E235" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F235" t="n">
-        <v>0.04874924430724037</v>
+        <v>0.2000757252775346</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D236" t="n">
         <v>100</v>
       </c>
       <c r="E236" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F236" t="n">
-        <v>0.05142483538004176</v>
+        <v>0.04534772089757518</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D237" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E237" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F237" t="n">
-        <v>0.02032605344038054</v>
+        <v>0.0708986238003764</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D238" t="n">
         <v>200</v>
       </c>
       <c r="E238" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0151593253700597</v>
+        <v>0.1789511103345538</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D239" t="n">
         <v>200</v>
       </c>
       <c r="E239" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F239" t="n">
-        <v>0.08816301589057959</v>
+        <v>0.2245538260214197</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D240" t="n">
         <v>200</v>
       </c>
       <c r="E240" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F240" t="n">
-        <v>0.06783675771217786</v>
+        <v>0.2473078485329414</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D241" t="n">
         <v>200</v>
       </c>
       <c r="E241" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F241" t="n">
-        <v>0.02920413418125553</v>
+        <v>0.06081096423348219</v>
       </c>
     </row>
     <row r="242">
@@ -5751,11 +5751,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D242" t="n">
         <v>100</v>
@@ -5764,7 +5764,7 @@
         <v>5</v>
       </c>
       <c r="F242" t="n">
-        <v>0.2620369365367123</v>
+        <v>0.1281922725340169</v>
       </c>
     </row>
     <row r="243">
@@ -5773,11 +5773,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D243" t="n">
         <v>100</v>
@@ -5786,7 +5786,7 @@
         <v>10</v>
       </c>
       <c r="F243" t="n">
-        <v>0.257212927736251</v>
+        <v>0.1943280085711073</v>
       </c>
     </row>
     <row r="244">
@@ -5795,11 +5795,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D244" t="n">
         <v>100</v>
@@ -5808,7 +5808,7 @@
         <v>50</v>
       </c>
       <c r="F244" t="n">
-        <v>0.1811893583245522</v>
+        <v>0.1526282319658277</v>
       </c>
     </row>
     <row r="245">
@@ -5817,11 +5817,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D245" t="n">
         <v>100</v>
@@ -5830,7 +5830,7 @@
         <v>100</v>
       </c>
       <c r="F245" t="n">
-        <v>0.2494528250159964</v>
+        <v>0.1709780832591389</v>
       </c>
     </row>
     <row r="246">
@@ -5839,20 +5839,20 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D246" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E246" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F246" t="n">
-        <v>0.361926109578828</v>
+        <v>0.1975197115098504</v>
       </c>
     </row>
     <row r="247">
@@ -5861,20 +5861,20 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D247" t="n">
         <v>200</v>
       </c>
       <c r="E247" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F247" t="n">
-        <v>0.214880387018689</v>
+        <v>0.156114865766228</v>
       </c>
     </row>
     <row r="248">
@@ -5883,20 +5883,20 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D248" t="n">
         <v>200</v>
       </c>
       <c r="E248" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F248" t="n">
-        <v>0.05485569836866645</v>
+        <v>0.1983126442092885</v>
       </c>
     </row>
     <row r="249">
@@ -5905,20 +5905,20 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="D249" t="n">
         <v>200</v>
       </c>
       <c r="E249" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F249" t="n">
-        <v>0.3246890949868776</v>
+        <v>0.284923139648242</v>
       </c>
     </row>
     <row r="250">
@@ -5927,20 +5927,20 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D250" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E250" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F250" t="n">
-        <v>0.2532249267064879</v>
+        <v>0.3429104172263934</v>
       </c>
     </row>
     <row r="251">
@@ -5949,20 +5949,20 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D251" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E251" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F251" t="n">
-        <v>0.5104609335759672</v>
+        <v>0.3724912390756033</v>
       </c>
     </row>
     <row r="252">
@@ -5971,20 +5971,20 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D252" t="n">
         <v>100</v>
       </c>
       <c r="E252" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F252" t="n">
-        <v>0.239006040981571</v>
+        <v>0.5532780142239327</v>
       </c>
     </row>
     <row r="253">
@@ -5993,20 +5993,20 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D253" t="n">
         <v>100</v>
       </c>
       <c r="E253" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F253" t="n">
-        <v>0.2962781466230899</v>
+        <v>0.1493532886889547</v>
       </c>
     </row>
     <row r="254">
@@ -6015,20 +6015,20 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D254" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E254" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F254" t="n">
-        <v>0.274668435325282</v>
+        <v>0.3903221170071998</v>
       </c>
     </row>
     <row r="255">
@@ -6037,20 +6037,20 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D255" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E255" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F255" t="n">
-        <v>0.2289368134015324</v>
+        <v>0.5610404303312732</v>
       </c>
     </row>
     <row r="256">
@@ -6059,20 +6059,20 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D256" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E256" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F256" t="n">
-        <v>0.3115270770154492</v>
+        <v>0.1942564835684404</v>
       </c>
     </row>
     <row r="257">
@@ -6081,20 +6081,20 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D257" t="n">
         <v>200</v>
       </c>
       <c r="E257" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F257" t="n">
-        <v>0.3241007263832868</v>
+        <v>0.3071015606137588</v>
       </c>
     </row>
     <row r="258">
@@ -6103,20 +6103,20 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D258" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E258" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F258" t="n">
-        <v>0.2096319142525283</v>
+        <v>0.2449696678211203</v>
       </c>
     </row>
     <row r="259">
@@ -6125,20 +6125,20 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D259" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E259" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F259" t="n">
-        <v>0.1532638316674486</v>
+        <v>0.0345582479197831</v>
       </c>
     </row>
     <row r="260">
@@ -6147,20 +6147,20 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D260" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E260" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F260" t="n">
-        <v>0.3494891741921308</v>
+        <v>0.251209841589905</v>
       </c>
     </row>
     <row r="261">
@@ -6169,20 +6169,20 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D261" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E261" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F261" t="n">
-        <v>0.3036686848499912</v>
+        <v>0.1901055083441854</v>
       </c>
     </row>
     <row r="262">
@@ -6191,20 +6191,20 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D262" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
       </c>
       <c r="F262" t="n">
-        <v>0.225587678653806</v>
+        <v>0.05787190345986942</v>
       </c>
     </row>
     <row r="263">
@@ -6213,20 +6213,20 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D263" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
       </c>
       <c r="F263" t="n">
-        <v>0.05439808003805182</v>
+        <v>0.04358472674873306</v>
       </c>
     </row>
     <row r="264">
@@ -6235,20 +6235,20 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D264" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E264" t="n">
         <v>50</v>
       </c>
       <c r="F264" t="n">
-        <v>0.3625565647296145</v>
+        <v>0.2330780696727786</v>
       </c>
     </row>
     <row r="265">
@@ -6257,20 +6257,20 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D265" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E265" t="n">
         <v>100</v>
       </c>
       <c r="F265" t="n">
-        <v>0.2437834435417388</v>
+        <v>0.1971768709765659</v>
       </c>
     </row>
     <row r="266">
@@ -6279,20 +6279,20 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D266" t="n">
         <v>100</v>
       </c>
       <c r="E266" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F266" t="n">
-        <v>0.7335924891846928</v>
+        <v>0.0431033582699567</v>
       </c>
     </row>
     <row r="267">
@@ -6301,20 +6301,20 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D267" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E267" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F267" t="n">
-        <v>0.03417185499736523</v>
+        <v>0.03963201615272791</v>
       </c>
     </row>
     <row r="268">
@@ -6323,20 +6323,20 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D268" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E268" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F268" t="n">
-        <v>0.04494677737561828</v>
+        <v>0.1818469726682706</v>
       </c>
     </row>
     <row r="269">
@@ -6345,20 +6345,20 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D269" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E269" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F269" t="n">
-        <v>0.1675705376568386</v>
+        <v>0.2059716202757113</v>
       </c>
     </row>
     <row r="270">
@@ -6367,20 +6367,20 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D270" t="n">
         <v>200</v>
       </c>
       <c r="E270" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F270" t="n">
-        <v>0.2081613739373716</v>
+        <v>0.04370582058856403</v>
       </c>
     </row>
     <row r="271">
@@ -6389,20 +6389,20 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D271" t="n">
         <v>200</v>
       </c>
       <c r="E271" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F271" t="n">
-        <v>0.6368338133877047</v>
+        <v>0.05094028206009252</v>
       </c>
     </row>
     <row r="272">
@@ -6411,20 +6411,20 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D272" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E272" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F272" t="n">
-        <v>0.05270925629376063</v>
+        <v>0.2620397480608278</v>
       </c>
     </row>
     <row r="273">
@@ -6433,20 +6433,20 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D273" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E273" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F273" t="n">
-        <v>0.08927514176935505</v>
+        <v>0.229046840235193</v>
       </c>
     </row>
     <row r="274">
@@ -6455,20 +6455,20 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D274" t="n">
         <v>100</v>
       </c>
       <c r="E274" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F274" t="n">
-        <v>0.2011699159087657</v>
+        <v>0.03359812236550351</v>
       </c>
     </row>
     <row r="275">
@@ -6477,20 +6477,20 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D275" t="n">
         <v>100</v>
       </c>
       <c r="E275" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F275" t="n">
-        <v>0.7192739486365568</v>
+        <v>0.06667660601919977</v>
       </c>
     </row>
     <row r="276">
@@ -6499,20 +6499,20 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D276" t="n">
         <v>100</v>
       </c>
       <c r="E276" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F276" t="n">
-        <v>0.50630174578953</v>
+        <v>0.1074067135070212</v>
       </c>
     </row>
     <row r="277">
@@ -6521,20 +6521,20 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D277" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E277" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F277" t="n">
-        <v>0.03909916399392879</v>
+        <v>0.0584226297677474</v>
       </c>
     </row>
     <row r="278">
@@ -6543,20 +6543,20 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D278" t="n">
         <v>200</v>
       </c>
       <c r="E278" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F278" t="n">
-        <v>0.04965018922293688</v>
+        <v>0.06125989985955275</v>
       </c>
     </row>
     <row r="279">
@@ -6565,20 +6565,20 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D279" t="n">
         <v>200</v>
       </c>
       <c r="E279" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F279" t="n">
-        <v>0.05544246834017181</v>
+        <v>0.05319189018909739</v>
       </c>
     </row>
     <row r="280">
@@ -6587,20 +6587,20 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D280" t="n">
         <v>200</v>
       </c>
       <c r="E280" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F280" t="n">
-        <v>0.7784927923736354</v>
+        <v>0.03435909434508862</v>
       </c>
     </row>
     <row r="281">
@@ -6609,20 +6609,20 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>sigmoid</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D281" t="n">
         <v>200</v>
       </c>
       <c r="E281" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F281" t="n">
-        <v>0.7906459834049737</v>
+        <v>0.07804225422657061</v>
       </c>
     </row>
     <row r="282">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D282" t="n">
         <v>100</v>
@@ -6644,7 +6644,7 @@
         <v>5</v>
       </c>
       <c r="F282" t="n">
-        <v>0.05178178750852683</v>
+        <v>0.0322793808570722</v>
       </c>
     </row>
     <row r="283">
@@ -6653,11 +6653,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D283" t="n">
         <v>100</v>
@@ -6666,7 +6666,7 @@
         <v>10</v>
       </c>
       <c r="F283" t="n">
-        <v>0.1810796615880278</v>
+        <v>0.07874985163941371</v>
       </c>
     </row>
     <row r="284">
@@ -6675,11 +6675,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D284" t="n">
         <v>100</v>
@@ -6688,7 +6688,7 @@
         <v>50</v>
       </c>
       <c r="F284" t="n">
-        <v>0.3164882277185639</v>
+        <v>0.1522524146391583</v>
       </c>
     </row>
     <row r="285">
@@ -6697,11 +6697,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D285" t="n">
         <v>100</v>
@@ -6710,7 +6710,7 @@
         <v>100</v>
       </c>
       <c r="F285" t="n">
-        <v>0.3027354003912574</v>
+        <v>0.09671706620500303</v>
       </c>
     </row>
     <row r="286">
@@ -6719,20 +6719,20 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D286" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E286" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F286" t="n">
-        <v>0.05806228514348528</v>
+        <v>0.09334644413026737</v>
       </c>
     </row>
     <row r="287">
@@ -6741,20 +6741,20 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D287" t="n">
         <v>200</v>
       </c>
       <c r="E287" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F287" t="n">
-        <v>0.1418461205489284</v>
+        <v>0.1321554315471883</v>
       </c>
     </row>
     <row r="288">
@@ -6763,20 +6763,20 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D288" t="n">
         <v>200</v>
       </c>
       <c r="E288" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F288" t="n">
-        <v>0.2396604784395397</v>
+        <v>0.1298247017974367</v>
       </c>
     </row>
     <row r="289">
@@ -6785,1604 +6785,20 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="D289" t="n">
         <v>200</v>
       </c>
       <c r="E289" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F289" t="n">
-        <v>0.2733154622287858</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C290" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D290" t="n">
-        <v>200</v>
-      </c>
-      <c r="E290" t="n">
-        <v>100</v>
-      </c>
-      <c r="F290" t="n">
-        <v>0.3300187255651331</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C291" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D291" t="n">
-        <v>200</v>
-      </c>
-      <c r="E291" t="n">
-        <v>200</v>
-      </c>
-      <c r="F291" t="n">
-        <v>0.15874027574301</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C292" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D292" t="n">
-        <v>100</v>
-      </c>
-      <c r="E292" t="n">
-        <v>5</v>
-      </c>
-      <c r="F292" t="n">
-        <v>0.1442106400837685</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C293" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D293" t="n">
-        <v>100</v>
-      </c>
-      <c r="E293" t="n">
-        <v>10</v>
-      </c>
-      <c r="F293" t="n">
-        <v>0.0993810295226336</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C294" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D294" t="n">
-        <v>100</v>
-      </c>
-      <c r="E294" t="n">
-        <v>50</v>
-      </c>
-      <c r="F294" t="n">
-        <v>0.2044111341381862</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C295" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D295" t="n">
-        <v>100</v>
-      </c>
-      <c r="E295" t="n">
-        <v>100</v>
-      </c>
-      <c r="F295" t="n">
-        <v>0.07481688685379026</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C296" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D296" t="n">
-        <v>100</v>
-      </c>
-      <c r="E296" t="n">
-        <v>200</v>
-      </c>
-      <c r="F296" t="n">
-        <v>0.3356383335190802</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C297" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D297" t="n">
-        <v>200</v>
-      </c>
-      <c r="E297" t="n">
-        <v>5</v>
-      </c>
-      <c r="F297" t="n">
-        <v>0.5030524323719112</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C298" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D298" t="n">
-        <v>200</v>
-      </c>
-      <c r="E298" t="n">
-        <v>10</v>
-      </c>
-      <c r="F298" t="n">
-        <v>0.245726713069127</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C299" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D299" t="n">
-        <v>200</v>
-      </c>
-      <c r="E299" t="n">
-        <v>50</v>
-      </c>
-      <c r="F299" t="n">
-        <v>0.2977653361524143</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C300" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D300" t="n">
-        <v>200</v>
-      </c>
-      <c r="E300" t="n">
-        <v>100</v>
-      </c>
-      <c r="F300" t="n">
-        <v>0.07023828888226276</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C301" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D301" t="n">
-        <v>200</v>
-      </c>
-      <c r="E301" t="n">
-        <v>200</v>
-      </c>
-      <c r="F301" t="n">
-        <v>0.2180428886331546</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C302" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D302" t="n">
-        <v>100</v>
-      </c>
-      <c r="E302" t="n">
-        <v>5</v>
-      </c>
-      <c r="F302" t="n">
-        <v>0.4548033500398855</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C303" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D303" t="n">
-        <v>100</v>
-      </c>
-      <c r="E303" t="n">
-        <v>10</v>
-      </c>
-      <c r="F303" t="n">
-        <v>0.3187617461534635</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C304" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D304" t="n">
-        <v>100</v>
-      </c>
-      <c r="E304" t="n">
-        <v>50</v>
-      </c>
-      <c r="F304" t="n">
-        <v>0.292505349171819</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C305" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D305" t="n">
-        <v>100</v>
-      </c>
-      <c r="E305" t="n">
-        <v>100</v>
-      </c>
-      <c r="F305" t="n">
-        <v>0.2922147540536733</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C306" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D306" t="n">
-        <v>100</v>
-      </c>
-      <c r="E306" t="n">
-        <v>200</v>
-      </c>
-      <c r="F306" t="n">
-        <v>0.2070218518117101</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C307" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D307" t="n">
-        <v>200</v>
-      </c>
-      <c r="E307" t="n">
-        <v>5</v>
-      </c>
-      <c r="F307" t="n">
-        <v>0.4969866474564986</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C308" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D308" t="n">
-        <v>200</v>
-      </c>
-      <c r="E308" t="n">
-        <v>10</v>
-      </c>
-      <c r="F308" t="n">
-        <v>0.2903570746931716</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C309" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D309" t="n">
-        <v>200</v>
-      </c>
-      <c r="E309" t="n">
-        <v>50</v>
-      </c>
-      <c r="F309" t="n">
-        <v>0.1780782956251249</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C310" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D310" t="n">
-        <v>200</v>
-      </c>
-      <c r="E310" t="n">
-        <v>100</v>
-      </c>
-      <c r="F310" t="n">
-        <v>0.3054257134680671</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C311" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D311" t="n">
-        <v>200</v>
-      </c>
-      <c r="E311" t="n">
-        <v>200</v>
-      </c>
-      <c r="F311" t="n">
-        <v>0.1791757130463064</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C312" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D312" t="n">
-        <v>100</v>
-      </c>
-      <c r="E312" t="n">
-        <v>5</v>
-      </c>
-      <c r="F312" t="n">
-        <v>0.2718685492044932</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C313" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D313" t="n">
-        <v>100</v>
-      </c>
-      <c r="E313" t="n">
-        <v>10</v>
-      </c>
-      <c r="F313" t="n">
-        <v>0.3529067151443626</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C314" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D314" t="n">
-        <v>100</v>
-      </c>
-      <c r="E314" t="n">
-        <v>50</v>
-      </c>
-      <c r="F314" t="n">
-        <v>0.3801286190249076</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C315" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D315" t="n">
-        <v>100</v>
-      </c>
-      <c r="E315" t="n">
-        <v>100</v>
-      </c>
-      <c r="F315" t="n">
-        <v>0.2317382302668222</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C316" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D316" t="n">
-        <v>100</v>
-      </c>
-      <c r="E316" t="n">
-        <v>200</v>
-      </c>
-      <c r="F316" t="n">
-        <v>0.1553278565161289</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C317" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D317" t="n">
-        <v>200</v>
-      </c>
-      <c r="E317" t="n">
-        <v>5</v>
-      </c>
-      <c r="F317" t="n">
-        <v>0.2538088434964946</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C318" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D318" t="n">
-        <v>200</v>
-      </c>
-      <c r="E318" t="n">
-        <v>10</v>
-      </c>
-      <c r="F318" t="n">
-        <v>0.2705479258522154</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C319" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D319" t="n">
-        <v>200</v>
-      </c>
-      <c r="E319" t="n">
-        <v>50</v>
-      </c>
-      <c r="F319" t="n">
-        <v>0.2299591392497238</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C320" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D320" t="n">
-        <v>200</v>
-      </c>
-      <c r="E320" t="n">
-        <v>100</v>
-      </c>
-      <c r="F320" t="n">
-        <v>0.5297902893469284</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>relu</t>
-        </is>
-      </c>
-      <c r="C321" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D321" t="n">
-        <v>200</v>
-      </c>
-      <c r="E321" t="n">
-        <v>200</v>
-      </c>
-      <c r="F321" t="n">
-        <v>0.2325017354178985</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C322" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D322" t="n">
-        <v>100</v>
-      </c>
-      <c r="E322" t="n">
-        <v>5</v>
-      </c>
-      <c r="F322" t="n">
-        <v>0.06374643134700134</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C323" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D323" t="n">
-        <v>100</v>
-      </c>
-      <c r="E323" t="n">
-        <v>10</v>
-      </c>
-      <c r="F323" t="n">
-        <v>0.05286915944672297</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C324" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D324" t="n">
-        <v>100</v>
-      </c>
-      <c r="E324" t="n">
-        <v>50</v>
-      </c>
-      <c r="F324" t="n">
-        <v>0.2492555646592788</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C325" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D325" t="n">
-        <v>100</v>
-      </c>
-      <c r="E325" t="n">
-        <v>100</v>
-      </c>
-      <c r="F325" t="n">
-        <v>0.3077815023491126</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C326" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D326" t="n">
-        <v>100</v>
-      </c>
-      <c r="E326" t="n">
-        <v>200</v>
-      </c>
-      <c r="F326" t="n">
-        <v>0.2858563825528438</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C327" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D327" t="n">
-        <v>200</v>
-      </c>
-      <c r="E327" t="n">
-        <v>5</v>
-      </c>
-      <c r="F327" t="n">
-        <v>0.05397064303379936</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C328" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D328" t="n">
-        <v>200</v>
-      </c>
-      <c r="E328" t="n">
-        <v>10</v>
-      </c>
-      <c r="F328" t="n">
-        <v>0.02884339459102858</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C329" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D329" t="n">
-        <v>200</v>
-      </c>
-      <c r="E329" t="n">
-        <v>50</v>
-      </c>
-      <c r="F329" t="n">
-        <v>0.1815849522368751</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C330" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D330" t="n">
-        <v>200</v>
-      </c>
-      <c r="E330" t="n">
-        <v>100</v>
-      </c>
-      <c r="F330" t="n">
-        <v>0.2700072979324351</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C331" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D331" t="n">
-        <v>200</v>
-      </c>
-      <c r="E331" t="n">
-        <v>200</v>
-      </c>
-      <c r="F331" t="n">
-        <v>0.1772142106468326</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C332" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D332" t="n">
-        <v>100</v>
-      </c>
-      <c r="E332" t="n">
-        <v>5</v>
-      </c>
-      <c r="F332" t="n">
-        <v>0.314242367664907</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C333" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D333" t="n">
-        <v>100</v>
-      </c>
-      <c r="E333" t="n">
-        <v>10</v>
-      </c>
-      <c r="F333" t="n">
-        <v>0.144555033917308</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C334" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D334" t="n">
-        <v>100</v>
-      </c>
-      <c r="E334" t="n">
-        <v>50</v>
-      </c>
-      <c r="F334" t="n">
-        <v>0.2761974592859991</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C335" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D335" t="n">
-        <v>100</v>
-      </c>
-      <c r="E335" t="n">
-        <v>100</v>
-      </c>
-      <c r="F335" t="n">
-        <v>0.2306542539471471</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C336" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D336" t="n">
-        <v>100</v>
-      </c>
-      <c r="E336" t="n">
-        <v>200</v>
-      </c>
-      <c r="F336" t="n">
-        <v>0.3122272918619536</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C337" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D337" t="n">
-        <v>200</v>
-      </c>
-      <c r="E337" t="n">
-        <v>5</v>
-      </c>
-      <c r="F337" t="n">
-        <v>0.05328893980148365</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C338" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D338" t="n">
-        <v>200</v>
-      </c>
-      <c r="E338" t="n">
-        <v>10</v>
-      </c>
-      <c r="F338" t="n">
-        <v>0.04991804723864166</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C339" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D339" t="n">
-        <v>200</v>
-      </c>
-      <c r="E339" t="n">
-        <v>50</v>
-      </c>
-      <c r="F339" t="n">
-        <v>0.05333193673868143</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C340" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D340" t="n">
-        <v>200</v>
-      </c>
-      <c r="E340" t="n">
-        <v>100</v>
-      </c>
-      <c r="F340" t="n">
-        <v>0.04241317424566267</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C341" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D341" t="n">
-        <v>200</v>
-      </c>
-      <c r="E341" t="n">
-        <v>200</v>
-      </c>
-      <c r="F341" t="n">
-        <v>0.2332287434615049</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C342" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D342" t="n">
-        <v>100</v>
-      </c>
-      <c r="E342" t="n">
-        <v>5</v>
-      </c>
-      <c r="F342" t="n">
-        <v>0.06492107478488587</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C343" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D343" t="n">
-        <v>100</v>
-      </c>
-      <c r="E343" t="n">
-        <v>10</v>
-      </c>
-      <c r="F343" t="n">
-        <v>0.0734619322426345</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C344" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D344" t="n">
-        <v>100</v>
-      </c>
-      <c r="E344" t="n">
-        <v>50</v>
-      </c>
-      <c r="F344" t="n">
-        <v>0.0466487967620007</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C345" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D345" t="n">
-        <v>100</v>
-      </c>
-      <c r="E345" t="n">
-        <v>100</v>
-      </c>
-      <c r="F345" t="n">
-        <v>0.05485018825155479</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C346" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D346" t="n">
-        <v>100</v>
-      </c>
-      <c r="E346" t="n">
-        <v>200</v>
-      </c>
-      <c r="F346" t="n">
-        <v>0.2472516674723576</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C347" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D347" t="n">
-        <v>200</v>
-      </c>
-      <c r="E347" t="n">
-        <v>5</v>
-      </c>
-      <c r="F347" t="n">
-        <v>0.05160466453947966</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C348" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D348" t="n">
-        <v>200</v>
-      </c>
-      <c r="E348" t="n">
-        <v>10</v>
-      </c>
-      <c r="F348" t="n">
-        <v>0.0764894365513844</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C349" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D349" t="n">
-        <v>200</v>
-      </c>
-      <c r="E349" t="n">
-        <v>50</v>
-      </c>
-      <c r="F349" t="n">
-        <v>0.03919688413107187</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C350" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D350" t="n">
-        <v>200</v>
-      </c>
-      <c r="E350" t="n">
-        <v>100</v>
-      </c>
-      <c r="F350" t="n">
-        <v>0.1136290386559949</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C351" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D351" t="n">
-        <v>200</v>
-      </c>
-      <c r="E351" t="n">
-        <v>200</v>
-      </c>
-      <c r="F351" t="n">
-        <v>0.04883043720352575</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C352" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D352" t="n">
-        <v>100</v>
-      </c>
-      <c r="E352" t="n">
-        <v>5</v>
-      </c>
-      <c r="F352" t="n">
-        <v>0.05052126024889221</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C353" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D353" t="n">
-        <v>100</v>
-      </c>
-      <c r="E353" t="n">
-        <v>10</v>
-      </c>
-      <c r="F353" t="n">
-        <v>0.1270339628985962</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C354" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D354" t="n">
-        <v>100</v>
-      </c>
-      <c r="E354" t="n">
-        <v>50</v>
-      </c>
-      <c r="F354" t="n">
-        <v>0.08089186391071682</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C355" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D355" t="n">
-        <v>100</v>
-      </c>
-      <c r="E355" t="n">
-        <v>100</v>
-      </c>
-      <c r="F355" t="n">
-        <v>0.08962255416505702</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C356" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D356" t="n">
-        <v>100</v>
-      </c>
-      <c r="E356" t="n">
-        <v>200</v>
-      </c>
-      <c r="F356" t="n">
-        <v>0.06802254096142649</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C357" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D357" t="n">
-        <v>200</v>
-      </c>
-      <c r="E357" t="n">
-        <v>5</v>
-      </c>
-      <c r="F357" t="n">
-        <v>0.1128682824496012</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C358" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D358" t="n">
-        <v>200</v>
-      </c>
-      <c r="E358" t="n">
-        <v>10</v>
-      </c>
-      <c r="F358" t="n">
-        <v>0.06540922211831049</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C359" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D359" t="n">
-        <v>200</v>
-      </c>
-      <c r="E359" t="n">
-        <v>50</v>
-      </c>
-      <c r="F359" t="n">
-        <v>0.1221238098760648</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C360" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D360" t="n">
-        <v>200</v>
-      </c>
-      <c r="E360" t="n">
-        <v>100</v>
-      </c>
-      <c r="F360" t="n">
-        <v>0.1180071854859275</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>tanh</t>
-        </is>
-      </c>
-      <c r="C361" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D361" t="n">
-        <v>200</v>
-      </c>
-      <c r="E361" t="n">
-        <v>200</v>
-      </c>
-      <c r="F361" t="n">
-        <v>0.06165221754746041</v>
+        <v>0.0391009975880963</v>
       </c>
     </row>
   </sheetData>

--- a/exercicio4sine/results.xlsx
+++ b/exercicio4sine/results.xlsx
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2108578240389151</v>
+        <v>0.2133438423016721</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1516952446049536</v>
+        <v>0.2471248561193036</v>
       </c>
     </row>
     <row r="4">
@@ -528,7 +528,7 @@
         <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2216818966294234</v>
+        <v>0.2107303563580289</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +550,7 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1720997839372335</v>
+        <v>0.2761912504359859</v>
       </c>
     </row>
     <row r="6">
@@ -572,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2483613707769451</v>
+        <v>0.02637247044322283</v>
       </c>
     </row>
     <row r="7">
@@ -594,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>0.227550318594007</v>
+        <v>0.1996189979930164</v>
       </c>
     </row>
     <row r="8">
@@ -616,7 +616,7 @@
         <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2178135425544981</v>
+        <v>0.2567957533324792</v>
       </c>
     </row>
     <row r="9">
@@ -638,7 +638,7 @@
         <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2376226180886777</v>
+        <v>0.1872656301250094</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008165630098927044</v>
+        <v>0.008904994291882191</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1710984096491143</v>
+        <v>0.1838082173245581</v>
       </c>
     </row>
     <row r="12">
@@ -704,7 +704,7 @@
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>0.283514262749926</v>
+        <v>0.1925726954219947</v>
       </c>
     </row>
     <row r="13">
@@ -726,7 +726,7 @@
         <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2756543311302513</v>
+        <v>0.1951406200810636</v>
       </c>
     </row>
     <row r="14">
@@ -748,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01090614563714632</v>
+        <v>0.230043930586817</v>
       </c>
     </row>
     <row r="15">
@@ -770,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1745761796682103</v>
+        <v>0.1680611819597577</v>
       </c>
     </row>
     <row r="16">
@@ -792,7 +792,7 @@
         <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>0.193678683540512</v>
+        <v>0.3139333810739915</v>
       </c>
     </row>
     <row r="17">
@@ -814,7 +814,7 @@
         <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1904752100872374</v>
+        <v>0.1860097936431001</v>
       </c>
     </row>
     <row r="18">
@@ -836,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00283954502655655</v>
+        <v>0.002493930140961514</v>
       </c>
     </row>
     <row r="19">
@@ -858,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004845586601007117</v>
+        <v>0.006513980186130099</v>
       </c>
     </row>
     <row r="20">
@@ -880,7 +880,7 @@
         <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3476123338371578</v>
+        <v>0.2205575522952305</v>
       </c>
     </row>
     <row r="21">
@@ -902,7 +902,7 @@
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1595851814141459</v>
+        <v>0.2593831140921259</v>
       </c>
     </row>
     <row r="22">
@@ -924,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00548556859646196</v>
+        <v>0.007342274555816449</v>
       </c>
     </row>
     <row r="23">
@@ -946,7 +946,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>0.005338167967904623</v>
+        <v>0.01076222839461512</v>
       </c>
     </row>
     <row r="24">
@@ -968,7 +968,7 @@
         <v>50</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5361375118165755</v>
+        <v>0.00488744723102055</v>
       </c>
     </row>
     <row r="25">
@@ -990,7 +990,7 @@
         <v>100</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5188665207074333</v>
+        <v>0.2934137473027755</v>
       </c>
     </row>
     <row r="26">
@@ -1012,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01677792947932119</v>
+        <v>0.001795343196867863</v>
       </c>
     </row>
     <row r="27">
@@ -1034,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>0.005318893983458369</v>
+        <v>0.005287884559028714</v>
       </c>
     </row>
     <row r="28">
@@ -1056,7 +1056,7 @@
         <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1705915899642733</v>
+        <v>0.2360631315005203</v>
       </c>
     </row>
     <row r="29">
@@ -1078,7 +1078,7 @@
         <v>100</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5173854159667681</v>
+        <v>0.5561665319631364</v>
       </c>
     </row>
     <row r="30">
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003102852100296831</v>
+        <v>0.00958212467620656</v>
       </c>
     </row>
     <row r="31">
@@ -1122,7 +1122,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00322322918258885</v>
+        <v>0.003915632036942324</v>
       </c>
     </row>
     <row r="32">
@@ -1144,7 +1144,7 @@
         <v>50</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01829758521569084</v>
+        <v>0.3017001279517271</v>
       </c>
     </row>
     <row r="33">
@@ -1166,7 +1166,7 @@
         <v>100</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5766856823303252</v>
+        <v>0.5274143981642259</v>
       </c>
     </row>
     <row r="34">
@@ -1188,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4604199487334151</v>
+        <v>0.1332951435465126</v>
       </c>
     </row>
     <row r="35">
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1186711001777725</v>
+        <v>0.2279977727986355</v>
       </c>
     </row>
     <row r="36">
@@ -1232,7 +1232,7 @@
         <v>50</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2466318874494135</v>
+        <v>0.1519554478556076</v>
       </c>
     </row>
     <row r="37">
@@ -1254,7 +1254,7 @@
         <v>100</v>
       </c>
       <c r="F37" t="n">
-        <v>0.221564843464006</v>
+        <v>0.1946225130839467</v>
       </c>
     </row>
     <row r="38">
@@ -1276,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1413674559175828</v>
+        <v>0.1590111139475972</v>
       </c>
     </row>
     <row r="39">
@@ -1298,7 +1298,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>0.187958159340072</v>
+        <v>0.01096475424246562</v>
       </c>
     </row>
     <row r="40">
@@ -1320,7 +1320,7 @@
         <v>50</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1623953614458422</v>
+        <v>0.1994258701407051</v>
       </c>
     </row>
     <row r="41">
@@ -1342,7 +1342,7 @@
         <v>100</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1374380477801192</v>
+        <v>0.09938330547938416</v>
       </c>
     </row>
     <row r="42">
@@ -1364,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2080867374618041</v>
+        <v>0.2172695282907383</v>
       </c>
     </row>
     <row r="43">
@@ -1386,7 +1386,7 @@
         <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1549238904887273</v>
+        <v>0.1489558141761448</v>
       </c>
     </row>
     <row r="44">
@@ -1408,7 +1408,7 @@
         <v>50</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0580830260860212</v>
+        <v>0.1283557690672342</v>
       </c>
     </row>
     <row r="45">
@@ -1430,7 +1430,7 @@
         <v>100</v>
       </c>
       <c r="F45" t="n">
-        <v>0.007068682440278187</v>
+        <v>0.1301253006285445</v>
       </c>
     </row>
     <row r="46">
@@ -1452,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1498600786057564</v>
+        <v>0.1101989366126068</v>
       </c>
     </row>
     <row r="47">
@@ -1474,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1889430751200806</v>
+        <v>0.1823571825397688</v>
       </c>
     </row>
     <row r="48">
@@ -1496,7 +1496,7 @@
         <v>50</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1716278670773198</v>
+        <v>0.01725527118124268</v>
       </c>
     </row>
     <row r="49">
@@ -1518,7 +1518,7 @@
         <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02120143406304517</v>
+        <v>0.1400561140578095</v>
       </c>
     </row>
     <row r="50">
@@ -1540,7 +1540,7 @@
         <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1649044096375459</v>
+        <v>0.2174516145208888</v>
       </c>
     </row>
     <row r="51">
@@ -1562,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2191750108976366</v>
+        <v>0.1240390204958808</v>
       </c>
     </row>
     <row r="52">
@@ -1584,7 +1584,7 @@
         <v>50</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1848694453628974</v>
+        <v>0.1308382510971284</v>
       </c>
     </row>
     <row r="53">
@@ -1606,7 +1606,7 @@
         <v>100</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3964042255450227</v>
+        <v>0.1528471035717414</v>
       </c>
     </row>
     <row r="54">
@@ -1628,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2109441976538288</v>
+        <v>0.166059749412871</v>
       </c>
     </row>
     <row r="55">
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1789046205911791</v>
+        <v>0.1451501445222992</v>
       </c>
     </row>
     <row r="56">
@@ -1672,7 +1672,7 @@
         <v>50</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2159885994141965</v>
+        <v>0.2498018811209183</v>
       </c>
     </row>
     <row r="57">
@@ -1694,7 +1694,7 @@
         <v>100</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3017714534760641</v>
+        <v>0.1439367377726288</v>
       </c>
     </row>
     <row r="58">
@@ -1716,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2365345385111359</v>
+        <v>0.3109506677181357</v>
       </c>
     </row>
     <row r="59">
@@ -1738,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3877062127359744</v>
+        <v>0.1420008224977825</v>
       </c>
     </row>
     <row r="60">
@@ -1760,7 +1760,7 @@
         <v>50</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1710596157315716</v>
+        <v>0.1646348189815447</v>
       </c>
     </row>
     <row r="61">
@@ -1782,7 +1782,7 @@
         <v>100</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1517392809037289</v>
+        <v>0.01630210591487842</v>
       </c>
     </row>
     <row r="62">
@@ -1804,7 +1804,7 @@
         <v>5</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2298967219253258</v>
+        <v>0.1822088841564083</v>
       </c>
     </row>
     <row r="63">
@@ -1826,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1803270430653354</v>
+        <v>0.1589801098182904</v>
       </c>
     </row>
     <row r="64">
@@ -1848,7 +1848,7 @@
         <v>50</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1304035027845981</v>
+        <v>0.1072354186037758</v>
       </c>
     </row>
     <row r="65">
@@ -1870,7 +1870,7 @@
         <v>100</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1316278319994022</v>
+        <v>0.2444763395190479</v>
       </c>
     </row>
     <row r="66">
@@ -1892,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="F66" t="n">
-        <v>0.008273667118566223</v>
+        <v>0.00994840492397593</v>
       </c>
     </row>
     <row r="67">
@@ -1914,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>0.007143606746341373</v>
+        <v>0.005644432316185846</v>
       </c>
     </row>
     <row r="68">
@@ -1936,7 +1936,7 @@
         <v>50</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1779721773372862</v>
+        <v>0.233469437743644</v>
       </c>
     </row>
     <row r="69">
@@ -1958,7 +1958,7 @@
         <v>100</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1288466017104714</v>
+        <v>0.1458853563758289</v>
       </c>
     </row>
     <row r="70">
@@ -1980,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>0.006174783429263643</v>
+        <v>0.006920150233341873</v>
       </c>
     </row>
     <row r="71">
@@ -2002,7 +2002,7 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>0.004099723889709359</v>
+        <v>0.009828879429763781</v>
       </c>
     </row>
     <row r="72">
@@ -2024,7 +2024,7 @@
         <v>50</v>
       </c>
       <c r="F72" t="n">
-        <v>0.004840276675763639</v>
+        <v>0.006557396362468483</v>
       </c>
     </row>
     <row r="73">
@@ -2046,7 +2046,7 @@
         <v>100</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1564274687311778</v>
+        <v>0.210794645507409</v>
       </c>
     </row>
     <row r="74">
@@ -2068,7 +2068,7 @@
         <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004266753382727183</v>
+        <v>0.009842879212513493</v>
       </c>
     </row>
     <row r="75">
@@ -2090,7 +2090,7 @@
         <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>0.005201447722906565</v>
+        <v>0.005673814122085061</v>
       </c>
     </row>
     <row r="76">
@@ -2112,7 +2112,7 @@
         <v>50</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2079632283897774</v>
+        <v>0.00493221176666643</v>
       </c>
     </row>
     <row r="77">
@@ -2134,7 +2134,7 @@
         <v>100</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1533414587936638</v>
+        <v>0.1491923071423654</v>
       </c>
     </row>
     <row r="78">
@@ -2156,7 +2156,7 @@
         <v>5</v>
       </c>
       <c r="F78" t="n">
-        <v>0.005160032794614328</v>
+        <v>0.003408072911188001</v>
       </c>
     </row>
     <row r="79">
@@ -2178,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>0.005084053440105712</v>
+        <v>0.004309865750695063</v>
       </c>
     </row>
     <row r="80">
@@ -2200,7 +2200,7 @@
         <v>50</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1936261967337957</v>
+        <v>0.003426867694646387</v>
       </c>
     </row>
     <row r="81">
@@ -2222,7 +2222,7 @@
         <v>100</v>
       </c>
       <c r="F81" t="n">
-        <v>0.005625906754164535</v>
+        <v>0.006150944055085174</v>
       </c>
     </row>
     <row r="82">
@@ -2244,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004101752285564779</v>
+        <v>0.01863971189226379</v>
       </c>
     </row>
     <row r="83">
@@ -2266,7 +2266,7 @@
         <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>0.009969826506467978</v>
+        <v>0.005129952867165376</v>
       </c>
     </row>
     <row r="84">
@@ -2288,7 +2288,7 @@
         <v>50</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005178258202756342</v>
+        <v>0.01073946335531384</v>
       </c>
     </row>
     <row r="85">
@@ -2310,7 +2310,7 @@
         <v>100</v>
       </c>
       <c r="F85" t="n">
-        <v>0.01395786831225244</v>
+        <v>0.008949080664970761</v>
       </c>
     </row>
     <row r="86">
@@ -2332,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002032929388696954</v>
+        <v>0.002544691279241082</v>
       </c>
     </row>
     <row r="87">
@@ -2354,7 +2354,7 @@
         <v>10</v>
       </c>
       <c r="F87" t="n">
-        <v>0.003592956260521008</v>
+        <v>0.005493165542724275</v>
       </c>
     </row>
     <row r="88">
@@ -2376,7 +2376,7 @@
         <v>50</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003983142424059661</v>
+        <v>0.01344435818523367</v>
       </c>
     </row>
     <row r="89">
@@ -2398,7 +2398,7 @@
         <v>100</v>
       </c>
       <c r="F89" t="n">
-        <v>0.007131953435351812</v>
+        <v>0.004508474199021178</v>
       </c>
     </row>
     <row r="90">
@@ -2420,7 +2420,7 @@
         <v>5</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00427753168122751</v>
+        <v>0.004939158835729948</v>
       </c>
     </row>
     <row r="91">
@@ -2442,7 +2442,7 @@
         <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>0.02962661719734684</v>
+        <v>0.007883644623415719</v>
       </c>
     </row>
     <row r="92">
@@ -2464,7 +2464,7 @@
         <v>50</v>
       </c>
       <c r="F92" t="n">
-        <v>0.01526900927635019</v>
+        <v>0.02507865477496739</v>
       </c>
     </row>
     <row r="93">
@@ -2486,7 +2486,7 @@
         <v>100</v>
       </c>
       <c r="F93" t="n">
-        <v>0.01101961554873287</v>
+        <v>0.02136260005502979</v>
       </c>
     </row>
     <row r="94">
@@ -2508,7 +2508,7 @@
         <v>5</v>
       </c>
       <c r="F94" t="n">
-        <v>0.004001239708374285</v>
+        <v>0.003245038652444729</v>
       </c>
     </row>
     <row r="95">
@@ -2530,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0189601275089445</v>
+        <v>0.03382246312017063</v>
       </c>
     </row>
     <row r="96">
@@ -2552,7 +2552,7 @@
         <v>50</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01978987794403958</v>
+        <v>0.02911581599596729</v>
       </c>
     </row>
     <row r="97">
@@ -2574,7 +2574,7 @@
         <v>100</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0117919234123852</v>
+        <v>0.02416065607123224</v>
       </c>
     </row>
     <row r="98">
@@ -2596,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03415217491304717</v>
+        <v>0.09174362970201647</v>
       </c>
     </row>
     <row r="99">
@@ -2618,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>0.04562026393044951</v>
+        <v>0.1679870406882118</v>
       </c>
     </row>
     <row r="100">
@@ -2640,7 +2640,7 @@
         <v>50</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2545596508742508</v>
+        <v>0.2849803246009305</v>
       </c>
     </row>
     <row r="101">
@@ -2662,7 +2662,7 @@
         <v>100</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2317599033711378</v>
+        <v>0.2123536765464574</v>
       </c>
     </row>
     <row r="102">
@@ -2684,7 +2684,7 @@
         <v>5</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3086916391057622</v>
+        <v>0.01154835593931991</v>
       </c>
     </row>
     <row r="103">
@@ -2706,7 +2706,7 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1656151882613976</v>
+        <v>0.09173762193597794</v>
       </c>
     </row>
     <row r="104">
@@ -2728,7 +2728,7 @@
         <v>50</v>
       </c>
       <c r="F104" t="n">
-        <v>0.2275962163207836</v>
+        <v>0.2560081866013207</v>
       </c>
     </row>
     <row r="105">
@@ -2750,7 +2750,7 @@
         <v>100</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2471435621880938</v>
+        <v>0.2010825876900749</v>
       </c>
     </row>
     <row r="106">
@@ -2772,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="F106" t="n">
-        <v>0.01381569198142295</v>
+        <v>0.01326863523280695</v>
       </c>
     </row>
     <row r="107">
@@ -2794,7 +2794,7 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>0.01270152737322914</v>
+        <v>0.2206602626634449</v>
       </c>
     </row>
     <row r="108">
@@ -2816,7 +2816,7 @@
         <v>50</v>
       </c>
       <c r="F108" t="n">
-        <v>0.221993204977574</v>
+        <v>0.2918584898124296</v>
       </c>
     </row>
     <row r="109">
@@ -2838,7 +2838,7 @@
         <v>100</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2895422719927326</v>
+        <v>0.2707456321115282</v>
       </c>
     </row>
     <row r="110">
@@ -2860,7 +2860,7 @@
         <v>5</v>
       </c>
       <c r="F110" t="n">
-        <v>0.02522518714352166</v>
+        <v>0.0175265995105007</v>
       </c>
     </row>
     <row r="111">
@@ -2882,7 +2882,7 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2019545675654572</v>
+        <v>0.2528719265802474</v>
       </c>
     </row>
     <row r="112">
@@ -2904,7 +2904,7 @@
         <v>50</v>
       </c>
       <c r="F112" t="n">
-        <v>0.2722377428838064</v>
+        <v>0.1775294676031391</v>
       </c>
     </row>
     <row r="113">
@@ -2926,7 +2926,7 @@
         <v>100</v>
       </c>
       <c r="F113" t="n">
-        <v>0.2386957033234037</v>
+        <v>0.2492550987120514</v>
       </c>
     </row>
     <row r="114">
@@ -2948,7 +2948,7 @@
         <v>5</v>
       </c>
       <c r="F114" t="n">
-        <v>0.01243849603996946</v>
+        <v>0.007255913612300501</v>
       </c>
     </row>
     <row r="115">
@@ -2970,7 +2970,7 @@
         <v>10</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3228671188124071</v>
+        <v>0.02146817308651831</v>
       </c>
     </row>
     <row r="116">
@@ -2992,7 +2992,7 @@
         <v>50</v>
       </c>
       <c r="F116" t="n">
-        <v>0.2301560136837021</v>
+        <v>0.1768545792638256</v>
       </c>
     </row>
     <row r="117">
@@ -3014,7 +3014,7 @@
         <v>100</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5370415540540605</v>
+        <v>0.6127803497762129</v>
       </c>
     </row>
     <row r="118">
@@ -3036,7 +3036,7 @@
         <v>5</v>
       </c>
       <c r="F118" t="n">
-        <v>0.01239107515950671</v>
+        <v>0.01424035031478004</v>
       </c>
     </row>
     <row r="119">
@@ -3058,7 +3058,7 @@
         <v>10</v>
       </c>
       <c r="F119" t="n">
-        <v>0.006822610132420039</v>
+        <v>0.01080840071832064</v>
       </c>
     </row>
     <row r="120">
@@ -3080,7 +3080,7 @@
         <v>50</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229309820314493</v>
+        <v>0.253701881508098</v>
       </c>
     </row>
     <row r="121">
@@ -3102,7 +3102,7 @@
         <v>100</v>
       </c>
       <c r="F121" t="n">
-        <v>0.2440614876105181</v>
+        <v>0.2734365829797341</v>
       </c>
     </row>
     <row r="122">
@@ -3124,7 +3124,7 @@
         <v>5</v>
       </c>
       <c r="F122" t="n">
-        <v>0.01294932461780065</v>
+        <v>0.02674886805447384</v>
       </c>
     </row>
     <row r="123">
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01645758567644568</v>
+        <v>0.02204636020765707</v>
       </c>
     </row>
     <row r="124">
@@ -3168,7 +3168,7 @@
         <v>50</v>
       </c>
       <c r="F124" t="n">
-        <v>0.3020079190046653</v>
+        <v>0.2246867401569316</v>
       </c>
     </row>
     <row r="125">
@@ -3190,7 +3190,7 @@
         <v>100</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5755088221681025</v>
+        <v>0.4685886206472116</v>
       </c>
     </row>
     <row r="126">
@@ -3212,7 +3212,7 @@
         <v>5</v>
       </c>
       <c r="F126" t="n">
-        <v>0.01458186897244651</v>
+        <v>0.009034076356732505</v>
       </c>
     </row>
     <row r="127">
@@ -3234,7 +3234,7 @@
         <v>10</v>
       </c>
       <c r="F127" t="n">
-        <v>0.01363866462633489</v>
+        <v>0.01413445065994648</v>
       </c>
     </row>
     <row r="128">
@@ -3256,7 +3256,7 @@
         <v>50</v>
       </c>
       <c r="F128" t="n">
-        <v>0.2557446923056256</v>
+        <v>0.2501870166556886</v>
       </c>
     </row>
     <row r="129">
@@ -3278,7 +3278,7 @@
         <v>100</v>
       </c>
       <c r="F129" t="n">
-        <v>0.6378515113288477</v>
+        <v>0.07237741578638715</v>
       </c>
     </row>
     <row r="130">
@@ -3300,7 +3300,7 @@
         <v>5</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1738511813516155</v>
+        <v>0.1930556694736606</v>
       </c>
     </row>
     <row r="131">
@@ -3322,7 +3322,7 @@
         <v>10</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2265926819763018</v>
+        <v>0.02147418625872962</v>
       </c>
     </row>
     <row r="132">
@@ -3344,7 +3344,7 @@
         <v>50</v>
       </c>
       <c r="F132" t="n">
-        <v>0.01997080066988161</v>
+        <v>0.01655405124159652</v>
       </c>
     </row>
     <row r="133">
@@ -3366,7 +3366,7 @@
         <v>100</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1853693401386927</v>
+        <v>0.01567910208966484</v>
       </c>
     </row>
     <row r="134">
@@ -3388,7 +3388,7 @@
         <v>5</v>
       </c>
       <c r="F134" t="n">
-        <v>0.2157387083690696</v>
+        <v>0.4527020121849047</v>
       </c>
     </row>
     <row r="135">
@@ -3410,7 +3410,7 @@
         <v>10</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1851654682442691</v>
+        <v>0.2857048056058697</v>
       </c>
     </row>
     <row r="136">
@@ -3432,7 +3432,7 @@
         <v>50</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1357211566652207</v>
+        <v>0.01317959653653067</v>
       </c>
     </row>
     <row r="137">
@@ -3454,7 +3454,7 @@
         <v>100</v>
       </c>
       <c r="F137" t="n">
-        <v>0.01385531300473461</v>
+        <v>0.1789043672774494</v>
       </c>
     </row>
     <row r="138">
@@ -3476,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1394824793543462</v>
+        <v>0.09139690440850057</v>
       </c>
     </row>
     <row r="139">
@@ -3498,7 +3498,7 @@
         <v>10</v>
       </c>
       <c r="F139" t="n">
-        <v>0.02628178132083624</v>
+        <v>0.2054954017988882</v>
       </c>
     </row>
     <row r="140">
@@ -3520,7 +3520,7 @@
         <v>50</v>
       </c>
       <c r="F140" t="n">
-        <v>0.01995841581194143</v>
+        <v>0.2085986989839467</v>
       </c>
     </row>
     <row r="141">
@@ -3542,7 +3542,7 @@
         <v>100</v>
       </c>
       <c r="F141" t="n">
-        <v>0.2689276923133034</v>
+        <v>0.2127611851319354</v>
       </c>
     </row>
     <row r="142">
@@ -3564,7 +3564,7 @@
         <v>5</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5032344884246611</v>
+        <v>0.1122785994610529</v>
       </c>
     </row>
     <row r="143">
@@ -3586,7 +3586,7 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1501618079940868</v>
+        <v>0.1627269384137197</v>
       </c>
     </row>
     <row r="144">
@@ -3608,7 +3608,7 @@
         <v>50</v>
       </c>
       <c r="F144" t="n">
-        <v>0.01553473018733739</v>
+        <v>0.02340482675876137</v>
       </c>
     </row>
     <row r="145">
@@ -3630,7 +3630,7 @@
         <v>100</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1544258124359231</v>
+        <v>0.01503514936473754</v>
       </c>
     </row>
     <row r="146">
@@ -3652,7 +3652,7 @@
         <v>5</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3549388989271816</v>
+        <v>0.1920058148409509</v>
       </c>
     </row>
     <row r="147">
@@ -3674,7 +3674,7 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>0.2444569017683166</v>
+        <v>0.2058370014657415</v>
       </c>
     </row>
     <row r="148">
@@ -3696,7 +3696,7 @@
         <v>50</v>
       </c>
       <c r="F148" t="n">
-        <v>0.170691598511219</v>
+        <v>0.2232840452836002</v>
       </c>
     </row>
     <row r="149">
@@ -3718,7 +3718,7 @@
         <v>100</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1486686707865336</v>
+        <v>0.1722409677601598</v>
       </c>
     </row>
     <row r="150">
@@ -3740,7 +3740,7 @@
         <v>5</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1795627128062446</v>
+        <v>0.2061088627257182</v>
       </c>
     </row>
     <row r="151">
@@ -3762,7 +3762,7 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>0.3335879527179421</v>
+        <v>0.08028297912569729</v>
       </c>
     </row>
     <row r="152">
@@ -3784,7 +3784,7 @@
         <v>50</v>
       </c>
       <c r="F152" t="n">
-        <v>0.09796125300075136</v>
+        <v>0.1273148618655476</v>
       </c>
     </row>
     <row r="153">
@@ -3806,7 +3806,7 @@
         <v>100</v>
       </c>
       <c r="F153" t="n">
-        <v>0.2575220293389467</v>
+        <v>0.1870625918729069</v>
       </c>
     </row>
     <row r="154">
@@ -3828,7 +3828,7 @@
         <v>5</v>
       </c>
       <c r="F154" t="n">
-        <v>0.2667597815928887</v>
+        <v>0.3261207389463763</v>
       </c>
     </row>
     <row r="155">
@@ -3850,7 +3850,7 @@
         <v>10</v>
       </c>
       <c r="F155" t="n">
-        <v>0.07103308892043765</v>
+        <v>0.1335333352401304</v>
       </c>
     </row>
     <row r="156">
@@ -3872,7 +3872,7 @@
         <v>50</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1867028868128509</v>
+        <v>0.207230762081517</v>
       </c>
     </row>
     <row r="157">
@@ -3894,7 +3894,7 @@
         <v>100</v>
       </c>
       <c r="F157" t="n">
-        <v>0.4901006239970715</v>
+        <v>0.231147456131985</v>
       </c>
     </row>
     <row r="158">
@@ -3916,7 +3916,7 @@
         <v>5</v>
       </c>
       <c r="F158" t="n">
-        <v>0.1180296076440852</v>
+        <v>0.7325997969253261</v>
       </c>
     </row>
     <row r="159">
@@ -3938,7 +3938,7 @@
         <v>10</v>
       </c>
       <c r="F159" t="n">
-        <v>0.2404866851217421</v>
+        <v>0.5396361784594066</v>
       </c>
     </row>
     <row r="160">
@@ -3960,7 +3960,7 @@
         <v>50</v>
       </c>
       <c r="F160" t="n">
-        <v>0.2719819930588347</v>
+        <v>0.4763259398545288</v>
       </c>
     </row>
     <row r="161">
@@ -3982,7 +3982,7 @@
         <v>100</v>
       </c>
       <c r="F161" t="n">
-        <v>0.2400300190451816</v>
+        <v>0.5359453473252281</v>
       </c>
     </row>
     <row r="162">
@@ -4004,7 +4004,7 @@
         <v>5</v>
       </c>
       <c r="F162" t="n">
-        <v>0.01278623586162768</v>
+        <v>0.2752550243172773</v>
       </c>
     </row>
     <row r="163">
@@ -4026,7 +4026,7 @@
         <v>10</v>
       </c>
       <c r="F163" t="n">
-        <v>0.01827188122609935</v>
+        <v>0.1798782696305586</v>
       </c>
     </row>
     <row r="164">
@@ -4048,7 +4048,7 @@
         <v>50</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1897574601490954</v>
+        <v>0.2430248601110794</v>
       </c>
     </row>
     <row r="165">
@@ -4070,7 +4070,7 @@
         <v>100</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1778778234738894</v>
+        <v>0.1956890214840389</v>
       </c>
     </row>
     <row r="166">
@@ -4092,7 +4092,7 @@
         <v>5</v>
       </c>
       <c r="F166" t="n">
-        <v>0.01316245967801012</v>
+        <v>0.00806995742035267</v>
       </c>
     </row>
     <row r="167">
@@ -4114,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="F167" t="n">
-        <v>0.01453384859812854</v>
+        <v>0.01914738056043474</v>
       </c>
     </row>
     <row r="168">
@@ -4136,7 +4136,7 @@
         <v>50</v>
       </c>
       <c r="F168" t="n">
-        <v>0.172887816927555</v>
+        <v>0.1728892079089139</v>
       </c>
     </row>
     <row r="169">
@@ -4158,7 +4158,7 @@
         <v>100</v>
       </c>
       <c r="F169" t="n">
-        <v>0.2120722348152749</v>
+        <v>0.2356516946884268</v>
       </c>
     </row>
     <row r="170">
@@ -4180,7 +4180,7 @@
         <v>5</v>
       </c>
       <c r="F170" t="n">
-        <v>0.02019068524084733</v>
+        <v>0.01894133627381156</v>
       </c>
     </row>
     <row r="171">
@@ -4202,7 +4202,7 @@
         <v>10</v>
       </c>
       <c r="F171" t="n">
-        <v>0.01215766570283467</v>
+        <v>0.2015519745742559</v>
       </c>
     </row>
     <row r="172">
@@ -4224,7 +4224,7 @@
         <v>50</v>
       </c>
       <c r="F172" t="n">
-        <v>0.02047759042604146</v>
+        <v>0.2626660586979631</v>
       </c>
     </row>
     <row r="173">
@@ -4246,7 +4246,7 @@
         <v>100</v>
       </c>
       <c r="F173" t="n">
-        <v>0.2149025120272553</v>
+        <v>0.2343125647010802</v>
       </c>
     </row>
     <row r="174">
@@ -4268,7 +4268,7 @@
         <v>5</v>
       </c>
       <c r="F174" t="n">
-        <v>0.2519496592701435</v>
+        <v>0.01237555686160639</v>
       </c>
     </row>
     <row r="175">
@@ -4290,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="F175" t="n">
-        <v>0.01595755648157488</v>
+        <v>0.02123071823034935</v>
       </c>
     </row>
     <row r="176">
@@ -4312,7 +4312,7 @@
         <v>50</v>
       </c>
       <c r="F176" t="n">
-        <v>0.01059514145401459</v>
+        <v>0.01546711058278477</v>
       </c>
     </row>
     <row r="177">
@@ -4334,7 +4334,7 @@
         <v>100</v>
       </c>
       <c r="F177" t="n">
-        <v>0.2380322711881539</v>
+        <v>0.2568922709601097</v>
       </c>
     </row>
     <row r="178">
@@ -4356,7 +4356,7 @@
         <v>5</v>
       </c>
       <c r="F178" t="n">
-        <v>0.03767303355098005</v>
+        <v>0.02151660117337752</v>
       </c>
     </row>
     <row r="179">
@@ -4378,7 +4378,7 @@
         <v>10</v>
       </c>
       <c r="F179" t="n">
-        <v>0.02928652273139515</v>
+        <v>0.03236585533869694</v>
       </c>
     </row>
     <row r="180">
@@ -4400,7 +4400,7 @@
         <v>50</v>
       </c>
       <c r="F180" t="n">
-        <v>0.01843505023578155</v>
+        <v>0.01491671944987713</v>
       </c>
     </row>
     <row r="181">
@@ -4422,7 +4422,7 @@
         <v>100</v>
       </c>
       <c r="F181" t="n">
-        <v>0.009120709093013903</v>
+        <v>0.02615760720619173</v>
       </c>
     </row>
     <row r="182">
@@ -4444,7 +4444,7 @@
         <v>5</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0209750015889135</v>
+        <v>0.011434825517838</v>
       </c>
     </row>
     <row r="183">
@@ -4466,7 +4466,7 @@
         <v>10</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0229692453641004</v>
+        <v>0.02876206038616929</v>
       </c>
     </row>
     <row r="184">
@@ -4488,7 +4488,7 @@
         <v>50</v>
       </c>
       <c r="F184" t="n">
-        <v>0.02534595206017297</v>
+        <v>0.03753847458622619</v>
       </c>
     </row>
     <row r="185">
@@ -4510,7 +4510,7 @@
         <v>100</v>
       </c>
       <c r="F185" t="n">
-        <v>0.01828587968799569</v>
+        <v>0.01728071968020535</v>
       </c>
     </row>
     <row r="186">
@@ -4532,7 +4532,7 @@
         <v>5</v>
       </c>
       <c r="F186" t="n">
-        <v>0.01743701692181118</v>
+        <v>0.03711464514309878</v>
       </c>
     </row>
     <row r="187">
@@ -4554,7 +4554,7 @@
         <v>10</v>
       </c>
       <c r="F187" t="n">
-        <v>0.03151816770509929</v>
+        <v>0.04325810571759595</v>
       </c>
     </row>
     <row r="188">
@@ -4576,7 +4576,7 @@
         <v>50</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0242960491863079</v>
+        <v>0.02451435680001486</v>
       </c>
     </row>
     <row r="189">
@@ -4598,7 +4598,7 @@
         <v>100</v>
       </c>
       <c r="F189" t="n">
-        <v>0.03435268121130976</v>
+        <v>0.01863437555465238</v>
       </c>
     </row>
     <row r="190">
@@ -4620,7 +4620,7 @@
         <v>5</v>
       </c>
       <c r="F190" t="n">
-        <v>0.02414174349667759</v>
+        <v>0.026523928931793</v>
       </c>
     </row>
     <row r="191">
@@ -4642,7 +4642,7 @@
         <v>10</v>
       </c>
       <c r="F191" t="n">
-        <v>0.02762255595585483</v>
+        <v>0.02469323752130312</v>
       </c>
     </row>
     <row r="192">
@@ -4664,7 +4664,7 @@
         <v>50</v>
       </c>
       <c r="F192" t="n">
-        <v>0.01559084069827111</v>
+        <v>0.05132771576895444</v>
       </c>
     </row>
     <row r="193">
@@ -4686,7 +4686,7 @@
         <v>100</v>
       </c>
       <c r="F193" t="n">
-        <v>0.03213655057566646</v>
+        <v>0.02169846489182004</v>
       </c>
     </row>
     <row r="194">
@@ -4708,7 +4708,7 @@
         <v>5</v>
       </c>
       <c r="F194" t="n">
-        <v>0.2682012279371396</v>
+        <v>0.1696637593920443</v>
       </c>
     </row>
     <row r="195">
@@ -4730,7 +4730,7 @@
         <v>10</v>
       </c>
       <c r="F195" t="n">
-        <v>0.3042205505035954</v>
+        <v>0.240131961179057</v>
       </c>
     </row>
     <row r="196">
@@ -4752,7 +4752,7 @@
         <v>50</v>
       </c>
       <c r="F196" t="n">
-        <v>0.2294104479011604</v>
+        <v>0.2830090801779326</v>
       </c>
     </row>
     <row r="197">
@@ -4774,7 +4774,7 @@
         <v>100</v>
       </c>
       <c r="F197" t="n">
-        <v>0.3717289134905526</v>
+        <v>0.2380929447802188</v>
       </c>
     </row>
     <row r="198">
@@ -4796,7 +4796,7 @@
         <v>5</v>
       </c>
       <c r="F198" t="n">
-        <v>0.1026693976408459</v>
+        <v>0.2334463754299209</v>
       </c>
     </row>
     <row r="199">
@@ -4818,7 +4818,7 @@
         <v>10</v>
       </c>
       <c r="F199" t="n">
-        <v>0.1959222525967589</v>
+        <v>0.1836787740484311</v>
       </c>
     </row>
     <row r="200">
@@ -4840,7 +4840,7 @@
         <v>50</v>
       </c>
       <c r="F200" t="n">
-        <v>0.260964994648071</v>
+        <v>0.2408886649351786</v>
       </c>
     </row>
     <row r="201">
@@ -4862,7 +4862,7 @@
         <v>100</v>
       </c>
       <c r="F201" t="n">
-        <v>0.3008885413613506</v>
+        <v>0.2817654711670499</v>
       </c>
     </row>
     <row r="202">
@@ -4884,7 +4884,7 @@
         <v>5</v>
       </c>
       <c r="F202" t="n">
-        <v>0.2037407864765576</v>
+        <v>0.06070966902254447</v>
       </c>
     </row>
     <row r="203">
@@ -4906,7 +4906,7 @@
         <v>10</v>
       </c>
       <c r="F203" t="n">
-        <v>0.2799159898189327</v>
+        <v>0.3004052190547509</v>
       </c>
     </row>
     <row r="204">
@@ -4928,7 +4928,7 @@
         <v>50</v>
       </c>
       <c r="F204" t="n">
-        <v>0.3604308460613183</v>
+        <v>0.3115187853939353</v>
       </c>
     </row>
     <row r="205">
@@ -4950,7 +4950,7 @@
         <v>100</v>
       </c>
       <c r="F205" t="n">
-        <v>0.2036996402444677</v>
+        <v>0.2301355369861846</v>
       </c>
     </row>
     <row r="206">
@@ -4972,7 +4972,7 @@
         <v>5</v>
       </c>
       <c r="F206" t="n">
-        <v>0.2476268374035672</v>
+        <v>0.03741699103417509</v>
       </c>
     </row>
     <row r="207">
@@ -4994,7 +4994,7 @@
         <v>10</v>
       </c>
       <c r="F207" t="n">
-        <v>0.03732968793517692</v>
+        <v>0.207835786184437</v>
       </c>
     </row>
     <row r="208">
@@ -5016,7 +5016,7 @@
         <v>50</v>
       </c>
       <c r="F208" t="n">
-        <v>0.3028471431884617</v>
+        <v>0.2672969233655013</v>
       </c>
     </row>
     <row r="209">
@@ -5038,7 +5038,7 @@
         <v>100</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5003515246405807</v>
+        <v>0.4407844099534133</v>
       </c>
     </row>
     <row r="210">
@@ -5060,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="F210" t="n">
-        <v>0.06211161986521745</v>
+        <v>0.03654325372676918</v>
       </c>
     </row>
     <row r="211">
@@ -5082,7 +5082,7 @@
         <v>10</v>
       </c>
       <c r="F211" t="n">
-        <v>0.04046710337845576</v>
+        <v>0.06217775527675438</v>
       </c>
     </row>
     <row r="212">
@@ -5104,7 +5104,7 @@
         <v>50</v>
       </c>
       <c r="F212" t="n">
-        <v>0.3639302757568979</v>
+        <v>0.1756912878651322</v>
       </c>
     </row>
     <row r="213">
@@ -5126,7 +5126,7 @@
         <v>100</v>
       </c>
       <c r="F213" t="n">
-        <v>0.3137832415263999</v>
+        <v>0.4261786325767118</v>
       </c>
     </row>
     <row r="214">
@@ -5148,7 +5148,7 @@
         <v>5</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0481090567364623</v>
+        <v>0.1074344017714877</v>
       </c>
     </row>
     <row r="215">
@@ -5170,7 +5170,7 @@
         <v>10</v>
       </c>
       <c r="F215" t="n">
-        <v>0.05708343616421705</v>
+        <v>0.03248750038108487</v>
       </c>
     </row>
     <row r="216">
@@ -5192,7 +5192,7 @@
         <v>50</v>
       </c>
       <c r="F216" t="n">
-        <v>0.3328416131767069</v>
+        <v>0.2613655060416281</v>
       </c>
     </row>
     <row r="217">
@@ -5214,7 +5214,7 @@
         <v>100</v>
       </c>
       <c r="F217" t="n">
-        <v>0.4294146824666521</v>
+        <v>0.2207949551500069</v>
       </c>
     </row>
     <row r="218">
@@ -5236,7 +5236,7 @@
         <v>5</v>
       </c>
       <c r="F218" t="n">
-        <v>0.04222965415421288</v>
+        <v>0.07728781992196974</v>
       </c>
     </row>
     <row r="219">
@@ -5258,7 +5258,7 @@
         <v>10</v>
       </c>
       <c r="F219" t="n">
-        <v>0.03144267133518655</v>
+        <v>0.06826808269808136</v>
       </c>
     </row>
     <row r="220">
@@ -5280,7 +5280,7 @@
         <v>50</v>
       </c>
       <c r="F220" t="n">
-        <v>0.3968129822342316</v>
+        <v>0.2088838003605724</v>
       </c>
     </row>
     <row r="221">
@@ -5302,7 +5302,7 @@
         <v>100</v>
       </c>
       <c r="F221" t="n">
-        <v>0.4549923727162105</v>
+        <v>0.5965803533710528</v>
       </c>
     </row>
     <row r="222">
@@ -5324,7 +5324,7 @@
         <v>5</v>
       </c>
       <c r="F222" t="n">
-        <v>0.05522140256766062</v>
+        <v>0.04682443084258742</v>
       </c>
     </row>
     <row r="223">
@@ -5346,7 +5346,7 @@
         <v>10</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0348071594897796</v>
+        <v>0.06323288945468916</v>
       </c>
     </row>
     <row r="224">
@@ -5368,7 +5368,7 @@
         <v>50</v>
       </c>
       <c r="F224" t="n">
-        <v>0.2698244514898699</v>
+        <v>0.1912745097707523</v>
       </c>
     </row>
     <row r="225">
@@ -5390,7 +5390,7 @@
         <v>100</v>
       </c>
       <c r="F225" t="n">
-        <v>0.5741996370191457</v>
+        <v>0.6323297864374613</v>
       </c>
     </row>
     <row r="226">
@@ -5412,7 +5412,7 @@
         <v>5</v>
       </c>
       <c r="F226" t="n">
-        <v>0.2129237821503776</v>
+        <v>0.1984145560412988</v>
       </c>
     </row>
     <row r="227">
@@ -5434,7 +5434,7 @@
         <v>10</v>
       </c>
       <c r="F227" t="n">
-        <v>0.2145771115773636</v>
+        <v>0.2357565326148593</v>
       </c>
     </row>
     <row r="228">
@@ -5456,7 +5456,7 @@
         <v>50</v>
       </c>
       <c r="F228" t="n">
-        <v>0.1294508899648154</v>
+        <v>0.3108461327374369</v>
       </c>
     </row>
     <row r="229">
@@ -5478,7 +5478,7 @@
         <v>100</v>
       </c>
       <c r="F229" t="n">
-        <v>0.3041889849095999</v>
+        <v>0.1908899556764901</v>
       </c>
     </row>
     <row r="230">
@@ -5500,7 +5500,7 @@
         <v>5</v>
       </c>
       <c r="F230" t="n">
-        <v>0.1937144193531765</v>
+        <v>0.2497096551103101</v>
       </c>
     </row>
     <row r="231">
@@ -5522,7 +5522,7 @@
         <v>10</v>
       </c>
       <c r="F231" t="n">
-        <v>0.136241275139154</v>
+        <v>0.06376425151119818</v>
       </c>
     </row>
     <row r="232">
@@ -5544,7 +5544,7 @@
         <v>50</v>
       </c>
       <c r="F232" t="n">
-        <v>0.2441923472404743</v>
+        <v>0.1333092324962004</v>
       </c>
     </row>
     <row r="233">
@@ -5566,7 +5566,7 @@
         <v>100</v>
       </c>
       <c r="F233" t="n">
-        <v>0.1991505509804816</v>
+        <v>0.05407394959597472</v>
       </c>
     </row>
     <row r="234">
@@ -5588,7 +5588,7 @@
         <v>5</v>
       </c>
       <c r="F234" t="n">
-        <v>0.622938645506471</v>
+        <v>0.1701162887194477</v>
       </c>
     </row>
     <row r="235">
@@ -5610,7 +5610,7 @@
         <v>10</v>
       </c>
       <c r="F235" t="n">
-        <v>0.2000757252775346</v>
+        <v>0.2227168843098359</v>
       </c>
     </row>
     <row r="236">
@@ -5632,7 +5632,7 @@
         <v>50</v>
       </c>
       <c r="F236" t="n">
-        <v>0.04534772089757518</v>
+        <v>0.02793153949644013</v>
       </c>
     </row>
     <row r="237">
@@ -5654,7 +5654,7 @@
         <v>100</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0708986238003764</v>
+        <v>0.218098088805701</v>
       </c>
     </row>
     <row r="238">
@@ -5676,7 +5676,7 @@
         <v>5</v>
       </c>
       <c r="F238" t="n">
-        <v>0.1789511103345538</v>
+        <v>0.1336140610579416</v>
       </c>
     </row>
     <row r="239">
@@ -5698,7 +5698,7 @@
         <v>10</v>
       </c>
       <c r="F239" t="n">
-        <v>0.2245538260214197</v>
+        <v>0.2770675432578716</v>
       </c>
     </row>
     <row r="240">
@@ -5720,7 +5720,7 @@
         <v>50</v>
       </c>
       <c r="F240" t="n">
-        <v>0.2473078485329414</v>
+        <v>0.03207481054045823</v>
       </c>
     </row>
     <row r="241">
@@ -5742,7 +5742,7 @@
         <v>100</v>
       </c>
       <c r="F241" t="n">
-        <v>0.06081096423348219</v>
+        <v>0.06477999932673525</v>
       </c>
     </row>
     <row r="242">
@@ -5764,7 +5764,7 @@
         <v>5</v>
       </c>
       <c r="F242" t="n">
-        <v>0.1281922725340169</v>
+        <v>0.1630802413735818</v>
       </c>
     </row>
     <row r="243">
@@ -5786,7 +5786,7 @@
         <v>10</v>
       </c>
       <c r="F243" t="n">
-        <v>0.1943280085711073</v>
+        <v>0.1693499372839971</v>
       </c>
     </row>
     <row r="244">
@@ -5808,7 +5808,7 @@
         <v>50</v>
       </c>
       <c r="F244" t="n">
-        <v>0.1526282319658277</v>
+        <v>0.3969793167624426</v>
       </c>
     </row>
     <row r="245">
@@ -5830,7 +5830,7 @@
         <v>100</v>
       </c>
       <c r="F245" t="n">
-        <v>0.1709780832591389</v>
+        <v>0.1832274990587841</v>
       </c>
     </row>
     <row r="246">
@@ -5852,7 +5852,7 @@
         <v>5</v>
       </c>
       <c r="F246" t="n">
-        <v>0.1975197115098504</v>
+        <v>0.2128294120321295</v>
       </c>
     </row>
     <row r="247">
@@ -5874,7 +5874,7 @@
         <v>10</v>
       </c>
       <c r="F247" t="n">
-        <v>0.156114865766228</v>
+        <v>0.1742301776027018</v>
       </c>
     </row>
     <row r="248">
@@ -5896,7 +5896,7 @@
         <v>50</v>
       </c>
       <c r="F248" t="n">
-        <v>0.1983126442092885</v>
+        <v>0.3067428626011365</v>
       </c>
     </row>
     <row r="249">
@@ -5918,7 +5918,7 @@
         <v>100</v>
       </c>
       <c r="F249" t="n">
-        <v>0.284923139648242</v>
+        <v>0.1761700621364635</v>
       </c>
     </row>
     <row r="250">
@@ -5940,7 +5940,7 @@
         <v>5</v>
       </c>
       <c r="F250" t="n">
-        <v>0.3429104172263934</v>
+        <v>0.7006549756628756</v>
       </c>
     </row>
     <row r="251">
@@ -5962,7 +5962,7 @@
         <v>10</v>
       </c>
       <c r="F251" t="n">
-        <v>0.3724912390756033</v>
+        <v>0.2142846963469341</v>
       </c>
     </row>
     <row r="252">
@@ -5984,7 +5984,7 @@
         <v>50</v>
       </c>
       <c r="F252" t="n">
-        <v>0.5532780142239327</v>
+        <v>0.3054461527130702</v>
       </c>
     </row>
     <row r="253">
@@ -6006,7 +6006,7 @@
         <v>100</v>
       </c>
       <c r="F253" t="n">
-        <v>0.1493532886889547</v>
+        <v>0.276171276936737</v>
       </c>
     </row>
     <row r="254">
@@ -6028,7 +6028,7 @@
         <v>5</v>
       </c>
       <c r="F254" t="n">
-        <v>0.3903221170071998</v>
+        <v>0.2153666832518621</v>
       </c>
     </row>
     <row r="255">
@@ -6050,7 +6050,7 @@
         <v>10</v>
       </c>
       <c r="F255" t="n">
-        <v>0.5610404303312732</v>
+        <v>0.1662432413445229</v>
       </c>
     </row>
     <row r="256">
@@ -6072,7 +6072,7 @@
         <v>50</v>
       </c>
       <c r="F256" t="n">
-        <v>0.1942564835684404</v>
+        <v>0.2924814004132545</v>
       </c>
     </row>
     <row r="257">
@@ -6094,7 +6094,7 @@
         <v>100</v>
       </c>
       <c r="F257" t="n">
-        <v>0.3071015606137588</v>
+        <v>0.3266159148951152</v>
       </c>
     </row>
     <row r="258">
@@ -6116,7 +6116,7 @@
         <v>5</v>
       </c>
       <c r="F258" t="n">
-        <v>0.2449696678211203</v>
+        <v>0.4199698992857002</v>
       </c>
     </row>
     <row r="259">
@@ -6138,7 +6138,7 @@
         <v>10</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0345582479197831</v>
+        <v>0.04580323614621253</v>
       </c>
     </row>
     <row r="260">
@@ -6160,7 +6160,7 @@
         <v>50</v>
       </c>
       <c r="F260" t="n">
-        <v>0.251209841589905</v>
+        <v>0.2316923562859943</v>
       </c>
     </row>
     <row r="261">
@@ -6182,7 +6182,7 @@
         <v>100</v>
       </c>
       <c r="F261" t="n">
-        <v>0.1901055083441854</v>
+        <v>0.3642495703022135</v>
       </c>
     </row>
     <row r="262">
@@ -6204,7 +6204,7 @@
         <v>5</v>
       </c>
       <c r="F262" t="n">
-        <v>0.05787190345986942</v>
+        <v>0.2959251153574906</v>
       </c>
     </row>
     <row r="263">
@@ -6226,7 +6226,7 @@
         <v>10</v>
       </c>
       <c r="F263" t="n">
-        <v>0.04358472674873306</v>
+        <v>0.04653047022768509</v>
       </c>
     </row>
     <row r="264">
@@ -6248,7 +6248,7 @@
         <v>50</v>
       </c>
       <c r="F264" t="n">
-        <v>0.2330780696727786</v>
+        <v>0.2134995770127842</v>
       </c>
     </row>
     <row r="265">
@@ -6270,7 +6270,7 @@
         <v>100</v>
       </c>
       <c r="F265" t="n">
-        <v>0.1971768709765659</v>
+        <v>0.2223117235532743</v>
       </c>
     </row>
     <row r="266">
@@ -6292,7 +6292,7 @@
         <v>5</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0431033582699567</v>
+        <v>0.03854613112064568</v>
       </c>
     </row>
     <row r="267">
@@ -6314,7 +6314,7 @@
         <v>10</v>
       </c>
       <c r="F267" t="n">
-        <v>0.03963201615272791</v>
+        <v>0.2531461049463708</v>
       </c>
     </row>
     <row r="268">
@@ -6336,7 +6336,7 @@
         <v>50</v>
       </c>
       <c r="F268" t="n">
-        <v>0.1818469726682706</v>
+        <v>0.06905731283410393</v>
       </c>
     </row>
     <row r="269">
@@ -6358,7 +6358,7 @@
         <v>100</v>
       </c>
       <c r="F269" t="n">
-        <v>0.2059716202757113</v>
+        <v>0.04654175491994913</v>
       </c>
     </row>
     <row r="270">
@@ -6380,7 +6380,7 @@
         <v>5</v>
       </c>
       <c r="F270" t="n">
-        <v>0.04370582058856403</v>
+        <v>0.06970764312380666</v>
       </c>
     </row>
     <row r="271">
@@ -6402,7 +6402,7 @@
         <v>10</v>
       </c>
       <c r="F271" t="n">
-        <v>0.05094028206009252</v>
+        <v>0.0318400964686097</v>
       </c>
     </row>
     <row r="272">
@@ -6424,7 +6424,7 @@
         <v>50</v>
       </c>
       <c r="F272" t="n">
-        <v>0.2620397480608278</v>
+        <v>0.05406785695694571</v>
       </c>
     </row>
     <row r="273">
@@ -6446,7 +6446,7 @@
         <v>100</v>
       </c>
       <c r="F273" t="n">
-        <v>0.229046840235193</v>
+        <v>0.05175605167506835</v>
       </c>
     </row>
     <row r="274">
@@ -6468,7 +6468,7 @@
         <v>5</v>
       </c>
       <c r="F274" t="n">
-        <v>0.03359812236550351</v>
+        <v>0.0480723695101351</v>
       </c>
     </row>
     <row r="275">
@@ -6490,7 +6490,7 @@
         <v>10</v>
       </c>
       <c r="F275" t="n">
-        <v>0.06667660601919977</v>
+        <v>0.05441506509898861</v>
       </c>
     </row>
     <row r="276">
@@ -6512,7 +6512,7 @@
         <v>50</v>
       </c>
       <c r="F276" t="n">
-        <v>0.1074067135070212</v>
+        <v>0.07742114030813571</v>
       </c>
     </row>
     <row r="277">
@@ -6534,7 +6534,7 @@
         <v>100</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0584226297677474</v>
+        <v>0.06856268841452132</v>
       </c>
     </row>
     <row r="278">
@@ -6556,7 +6556,7 @@
         <v>5</v>
       </c>
       <c r="F278" t="n">
-        <v>0.06125989985955275</v>
+        <v>0.06355172312056377</v>
       </c>
     </row>
     <row r="279">
@@ -6578,7 +6578,7 @@
         <v>10</v>
       </c>
       <c r="F279" t="n">
-        <v>0.05319189018909739</v>
+        <v>0.05045243244923278</v>
       </c>
     </row>
     <row r="280">
@@ -6600,7 +6600,7 @@
         <v>50</v>
       </c>
       <c r="F280" t="n">
-        <v>0.03435909434508862</v>
+        <v>0.1463050739482672</v>
       </c>
     </row>
     <row r="281">
@@ -6622,7 +6622,7 @@
         <v>100</v>
       </c>
       <c r="F281" t="n">
-        <v>0.07804225422657061</v>
+        <v>0.0508329378480537</v>
       </c>
     </row>
     <row r="282">
@@ -6644,7 +6644,7 @@
         <v>5</v>
       </c>
       <c r="F282" t="n">
-        <v>0.0322793808570722</v>
+        <v>0.04816204564239814</v>
       </c>
     </row>
     <row r="283">
@@ -6666,7 +6666,7 @@
         <v>10</v>
       </c>
       <c r="F283" t="n">
-        <v>0.07874985163941371</v>
+        <v>0.07115346593890548</v>
       </c>
     </row>
     <row r="284">
@@ -6688,7 +6688,7 @@
         <v>50</v>
       </c>
       <c r="F284" t="n">
-        <v>0.1522524146391583</v>
+        <v>0.09003992461040912</v>
       </c>
     </row>
     <row r="285">
@@ -6710,7 +6710,7 @@
         <v>100</v>
       </c>
       <c r="F285" t="n">
-        <v>0.09671706620500303</v>
+        <v>0.05011336194571119</v>
       </c>
     </row>
     <row r="286">
@@ -6732,7 +6732,7 @@
         <v>5</v>
       </c>
       <c r="F286" t="n">
-        <v>0.09334644413026737</v>
+        <v>0.03021534231404428</v>
       </c>
     </row>
     <row r="287">
@@ -6754,7 +6754,7 @@
         <v>10</v>
       </c>
       <c r="F287" t="n">
-        <v>0.1321554315471883</v>
+        <v>0.1421253371863495</v>
       </c>
     </row>
     <row r="288">
@@ -6776,7 +6776,7 @@
         <v>50</v>
       </c>
       <c r="F288" t="n">
-        <v>0.1298247017974367</v>
+        <v>0.1049353850744699</v>
       </c>
     </row>
     <row r="289">
@@ -6798,7 +6798,7 @@
         <v>100</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0391009975880963</v>
+        <v>0.08487715405348316</v>
       </c>
     </row>
   </sheetData>
